--- a/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
@@ -418,22 +418,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.135319104146447</v>
+        <v>1.135319104146845</v>
       </c>
       <c r="E2">
-        <v>1.003503986779933</v>
+        <v>1.003503986779918</v>
       </c>
       <c r="F2">
-        <v>12.23657848119669</v>
+        <v>12.23657848119677</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2295964959047794</v>
+        <v>0.2295964959048007</v>
       </c>
       <c r="I2">
-        <v>0.2642895879028586</v>
+        <v>0.2642895879028906</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.201661000224874</v>
+        <v>3.201661000224647</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9015051359729114</v>
+        <v>0.9015051359733093</v>
       </c>
       <c r="E3">
-        <v>0.8324891168280573</v>
+        <v>0.8324891168280857</v>
       </c>
       <c r="F3">
-        <v>9.753455221193178</v>
+        <v>9.753455221193263</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.212864975132927</v>
+        <v>0.212864975132895</v>
       </c>
       <c r="I3">
-        <v>0.2251344241431781</v>
+        <v>0.2251344241431461</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.692289781223394</v>
+        <v>7.692289781223366</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.877770155120686</v>
+        <v>2.877770155120288</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.7791974292343014</v>
+        <v>0.7791974292345287</v>
       </c>
       <c r="E4">
-        <v>0.7381359749171352</v>
+        <v>0.7381359749170855</v>
       </c>
       <c r="F4">
-        <v>8.456888565577628</v>
+        <v>8.4568885655776</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.208838640053866</v>
+        <v>0.2088386400538376</v>
       </c>
       <c r="I4">
-        <v>0.2027573220959979</v>
+        <v>0.2027573220959553</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.803150512555419</v>
+        <v>6.803150512555334</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,28 +532,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7329379794905151</v>
+        <v>0.732937979490373</v>
       </c>
       <c r="E5">
-        <v>0.7014417740438148</v>
+        <v>0.701441774043829</v>
       </c>
       <c r="F5">
-        <v>7.967448163993168</v>
+        <v>7.96744816399314</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.2084154059129197</v>
+        <v>0.2084154059129162</v>
       </c>
       <c r="I5">
-        <v>0.1939076996110245</v>
+        <v>0.1939076996110387</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.457370921293688</v>
+        <v>6.457370921293602</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.727157278752657</v>
+        <v>2.7271572787526</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7254369295286551</v>
+        <v>0.7254369295288541</v>
       </c>
       <c r="E6">
         <v>0.6954360596615956</v>
       </c>
       <c r="F6">
-        <v>7.888148268904132</v>
+        <v>7.888148268904075</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.2084109167361987</v>
+        <v>0.2084109167362307</v>
       </c>
       <c r="I6">
-        <v>0.1924514896683576</v>
+        <v>0.1924514896683789</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.400787456014513</v>
+        <v>6.400787456014427</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.876016899876106</v>
+        <v>2.876016899876277</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.7785607632624476</v>
+        <v>0.7785607632620781</v>
       </c>
       <c r="E7">
-        <v>0.7376348833801529</v>
+        <v>0.7376348833801387</v>
       </c>
       <c r="F7">
-        <v>8.450148178537063</v>
+        <v>8.450148178537034</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2088283662812565</v>
+        <v>0.2088283662812529</v>
       </c>
       <c r="I7">
-        <v>0.2026370252885492</v>
+        <v>0.2026370252885243</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.798428082730567</v>
+        <v>6.798428082730453</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.559823655944172</v>
+        <v>3.559823655943944</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.048872142266191</v>
+        <v>1.048872142265793</v>
       </c>
       <c r="E8">
-        <v>0.9415813289466399</v>
+        <v>0.9415813289466541</v>
       </c>
       <c r="F8">
-        <v>11.31832017857135</v>
+        <v>11.31832017857124</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0.2222608307174099</v>
       </c>
       <c r="I8">
-        <v>0.2503219561799774</v>
+        <v>0.2503219561800094</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.718832118469891</v>
+        <v>8.718832118469948</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E9">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F9">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I9">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E10">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F10">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I10">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E11">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F11">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I11">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E12">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F12">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I12">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E13">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F13">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I13">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E14">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F14">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I14">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E15">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F15">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I15">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E16">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F16">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I16">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E17">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F17">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I17">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E18">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F18">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I18">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E19">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F19">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I19">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E20">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F20">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I20">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E21">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F21">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I21">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E22">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F22">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I22">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E23">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F23">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I23">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E24">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F24">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I24">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.186337444791775</v>
+        <v>5.186337444791548</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.997472466979701</v>
+        <v>1.997472466979872</v>
       </c>
       <c r="E25">
-        <v>1.560647541766741</v>
+        <v>1.560647541766784</v>
       </c>
       <c r="F25">
-        <v>21.30922230746251</v>
+        <v>21.3092223074629</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.3390447720869432</v>
+        <v>0.3390447720869361</v>
       </c>
       <c r="I25">
-        <v>0.3794945744267366</v>
+        <v>0.3794945744267153</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.37471728278021</v>
+        <v>14.37471728278038</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
@@ -418,22 +418,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.135319104146845</v>
+        <v>1.135319104146447</v>
       </c>
       <c r="E2">
-        <v>1.003503986779918</v>
+        <v>1.003503986779933</v>
       </c>
       <c r="F2">
-        <v>12.23657848119677</v>
+        <v>12.23657848119669</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2295964959048007</v>
+        <v>0.2295964959047794</v>
       </c>
       <c r="I2">
-        <v>0.2642895879028906</v>
+        <v>0.2642895879028586</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.201661000224647</v>
+        <v>3.201661000224874</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9015051359733093</v>
+        <v>0.9015051359729114</v>
       </c>
       <c r="E3">
-        <v>0.8324891168280857</v>
+        <v>0.8324891168280573</v>
       </c>
       <c r="F3">
-        <v>9.753455221193263</v>
+        <v>9.753455221193178</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.212864975132895</v>
+        <v>0.212864975132927</v>
       </c>
       <c r="I3">
-        <v>0.2251344241431461</v>
+        <v>0.2251344241431781</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.692289781223366</v>
+        <v>7.692289781223394</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.877770155120288</v>
+        <v>2.877770155120686</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.7791974292345287</v>
+        <v>0.7791974292343014</v>
       </c>
       <c r="E4">
-        <v>0.7381359749170855</v>
+        <v>0.7381359749171352</v>
       </c>
       <c r="F4">
-        <v>8.4568885655776</v>
+        <v>8.456888565577628</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.2088386400538376</v>
+        <v>0.208838640053866</v>
       </c>
       <c r="I4">
-        <v>0.2027573220959553</v>
+        <v>0.2027573220959979</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.803150512555334</v>
+        <v>6.803150512555419</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,28 +532,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.732937979490373</v>
+        <v>0.7329379794905151</v>
       </c>
       <c r="E5">
-        <v>0.701441774043829</v>
+        <v>0.7014417740438148</v>
       </c>
       <c r="F5">
-        <v>7.96744816399314</v>
+        <v>7.967448163993168</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.2084154059129162</v>
+        <v>0.2084154059129197</v>
       </c>
       <c r="I5">
-        <v>0.1939076996110387</v>
+        <v>0.1939076996110245</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.457370921293602</v>
+        <v>6.457370921293688</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.7271572787526</v>
+        <v>2.727157278752657</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7254369295288541</v>
+        <v>0.7254369295286551</v>
       </c>
       <c r="E6">
         <v>0.6954360596615956</v>
       </c>
       <c r="F6">
-        <v>7.888148268904075</v>
+        <v>7.888148268904132</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.2084109167362307</v>
+        <v>0.2084109167361987</v>
       </c>
       <c r="I6">
-        <v>0.1924514896683789</v>
+        <v>0.1924514896683576</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.400787456014427</v>
+        <v>6.400787456014513</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.876016899876277</v>
+        <v>2.876016899876106</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.7785607632620781</v>
+        <v>0.7785607632624476</v>
       </c>
       <c r="E7">
-        <v>0.7376348833801387</v>
+        <v>0.7376348833801529</v>
       </c>
       <c r="F7">
-        <v>8.450148178537034</v>
+        <v>8.450148178537063</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2088283662812529</v>
+        <v>0.2088283662812565</v>
       </c>
       <c r="I7">
-        <v>0.2026370252885243</v>
+        <v>0.2026370252885492</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.798428082730453</v>
+        <v>6.798428082730567</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.559823655943944</v>
+        <v>3.559823655944172</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.048872142265793</v>
+        <v>1.048872142266191</v>
       </c>
       <c r="E8">
-        <v>0.9415813289466541</v>
+        <v>0.9415813289466399</v>
       </c>
       <c r="F8">
-        <v>11.31832017857124</v>
+        <v>11.31832017857135</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0.2222608307174099</v>
       </c>
       <c r="I8">
-        <v>0.2503219561800094</v>
+        <v>0.2503219561799774</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.718832118469948</v>
+        <v>8.718832118469891</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E9">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F9">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I9">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E10">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F10">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I10">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E11">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F11">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I11">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E12">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F12">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I12">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E13">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F13">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I13">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E14">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F14">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I14">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E15">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F15">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I15">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E16">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F16">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I16">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E17">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F17">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I17">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E18">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F18">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I18">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E19">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F19">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I19">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E20">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F20">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I20">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E21">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F21">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I21">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E22">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F22">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I22">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E23">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F23">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I23">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E24">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F24">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I24">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.186337444791548</v>
+        <v>5.186337444791775</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.997472466979872</v>
+        <v>1.997472466979701</v>
       </c>
       <c r="E25">
-        <v>1.560647541766784</v>
+        <v>1.560647541766741</v>
       </c>
       <c r="F25">
-        <v>21.3092223074629</v>
+        <v>21.30922230746251</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.3390447720869361</v>
+        <v>0.3390447720869432</v>
       </c>
       <c r="I25">
-        <v>0.3794945744267153</v>
+        <v>0.3794945744267366</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.37471728278038</v>
+        <v>14.37471728278021</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.754785693932661</v>
+        <v>3.735776642646158</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.135319104146447</v>
+        <v>1.102930521587524</v>
       </c>
       <c r="E2">
-        <v>1.003503986779933</v>
+        <v>0.9824481526957811</v>
       </c>
       <c r="F2">
-        <v>12.23657848119669</v>
+        <v>11.97319046164262</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005731779025933407</v>
       </c>
       <c r="H2">
-        <v>0.2295964959047794</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2642895879028586</v>
+        <v>0.2301446856234648</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2599872474114591</v>
       </c>
       <c r="K2">
-        <v>9.299926771342115</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.171311255112357</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.201661000224874</v>
+        <v>3.187348744698852</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9015051359729114</v>
+        <v>0.8776659610759907</v>
       </c>
       <c r="E3">
-        <v>0.8324891168280573</v>
+        <v>0.8158237185709396</v>
       </c>
       <c r="F3">
-        <v>9.753455221193178</v>
+        <v>9.572134414638839</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006130472414455183</v>
       </c>
       <c r="H3">
-        <v>0.212864975132927</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2251344241431781</v>
+        <v>0.2151310879355677</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2215112671408974</v>
       </c>
       <c r="K3">
-        <v>7.692289781223394</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>7.596969356649169</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.877770155120686</v>
+        <v>2.865697779602954</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.7791974292343014</v>
+        <v>0.7594574070053</v>
       </c>
       <c r="E4">
-        <v>0.7381359749171352</v>
+        <v>0.7235180553331944</v>
       </c>
       <c r="F4">
-        <v>8.456888565577628</v>
+        <v>8.314603995113231</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00063587656162879</v>
       </c>
       <c r="H4">
-        <v>0.208838640053866</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2027573220959979</v>
+        <v>0.2120189818237961</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1994376430484444</v>
       </c>
       <c r="K4">
-        <v>6.803150512555419</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>6.723421890836022</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.748487614854469</v>
+        <v>2.737236341435448</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7329379794905151</v>
+        <v>0.7147052000003953</v>
       </c>
       <c r="E5">
-        <v>0.7014417740438148</v>
+        <v>0.6875654845222243</v>
       </c>
       <c r="F5">
-        <v>7.967448163993168</v>
+        <v>7.839456939907279</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006449366691445865</v>
       </c>
       <c r="H5">
-        <v>0.2084154059129197</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1939076996110245</v>
+        <v>0.2119496813698696</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.190695301755138</v>
       </c>
       <c r="K5">
-        <v>6.457370921293688</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>6.383303715218034</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.727157278752657</v>
+        <v>2.716038061358518</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7254369295286551</v>
+        <v>0.7074468157632623</v>
       </c>
       <c r="E6">
-        <v>0.6954360596615956</v>
+        <v>0.681678565999853</v>
       </c>
       <c r="F6">
-        <v>7.888148268904132</v>
+        <v>7.762455048552141</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006464299860737769</v>
       </c>
       <c r="H6">
-        <v>0.2084109167361987</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1924514896683576</v>
+        <v>0.2120031399388296</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1892561316423311</v>
       </c>
       <c r="K6">
-        <v>6.400787456014513</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>6.327627884486674</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.876016899876106</v>
+        <v>2.863955909016397</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.7785607632624476</v>
+        <v>0.7588416208609488</v>
       </c>
       <c r="E7">
-        <v>0.7376348833801529</v>
+        <v>0.7230272809633789</v>
       </c>
       <c r="F7">
-        <v>8.450148178537063</v>
+        <v>8.308061844838505</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006359995642576789</v>
       </c>
       <c r="H7">
-        <v>0.2088283662812565</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2026370252885492</v>
+        <v>0.2120135422020617</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.199318849036441</v>
       </c>
       <c r="K7">
-        <v>6.798428082730567</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.718778164475253</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.559823655944172</v>
+        <v>3.542630093277353</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.048872142266191</v>
+        <v>1.019781857427745</v>
       </c>
       <c r="E8">
-        <v>0.9415813289466399</v>
+        <v>0.9222362514682487</v>
       </c>
       <c r="F8">
-        <v>11.31832017857135</v>
+        <v>11.08668536208523</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005874040778184596</v>
       </c>
       <c r="H8">
-        <v>0.2222608307174099</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2503219561799774</v>
+        <v>0.2234452406630325</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2462881797662355</v>
       </c>
       <c r="K8">
-        <v>8.718832118469891</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>8.603172073505164</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E9">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F9">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H9">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K9">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E10">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F10">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H10">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K10">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E11">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F11">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H11">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K11">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E12">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F12">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H12">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K12">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E13">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F13">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H13">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K13">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E14">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F14">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H14">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K14">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E15">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F15">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H15">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K15">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E16">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F16">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H16">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K16">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E17">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F17">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H17">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K17">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E18">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F18">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H18">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K18">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E19">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F19">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H19">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K19">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E20">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F20">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H20">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K20">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E21">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F21">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H21">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K21">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E22">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F22">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H22">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K22">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E23">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F23">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H23">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K23">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E24">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F24">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H24">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K24">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.186337444791775</v>
+        <v>5.135421883245499</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.997472466979701</v>
+        <v>1.907801577970957</v>
       </c>
       <c r="E25">
-        <v>1.560647541766741</v>
+        <v>1.508292945381669</v>
       </c>
       <c r="F25">
-        <v>21.30922230746251</v>
+        <v>20.48626360414136</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0004565496573574953</v>
       </c>
       <c r="H25">
-        <v>0.3390447720869432</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3794945744267366</v>
+        <v>0.3309938555039906</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3699133487070299</v>
       </c>
       <c r="K25">
-        <v>14.37471728278021</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>14.01064945217385</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.735776642646158</v>
+        <v>2.006928374290851</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.102930521587524</v>
+        <v>0.1214591363663544</v>
       </c>
       <c r="E2">
-        <v>0.9824481526957811</v>
+        <v>0.8017178152267803</v>
       </c>
       <c r="F2">
-        <v>11.97319046164262</v>
+        <v>4.113898456710018</v>
       </c>
       <c r="G2">
-        <v>0.0005731779025933407</v>
+        <v>0.0007368965778307779</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2301446856234648</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2599872474114591</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.033377376734137</v>
       </c>
       <c r="L2">
-        <v>9.171311255112357</v>
+        <v>1.125630867591241</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.9278836174213723</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.187348744698852</v>
+        <v>1.755719593025702</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.8776659610759907</v>
+        <v>0.1081694931855708</v>
       </c>
       <c r="E3">
-        <v>0.8158237185709396</v>
+        <v>0.6924775664127836</v>
       </c>
       <c r="F3">
-        <v>9.572134414638839</v>
+        <v>3.572958454089871</v>
       </c>
       <c r="G3">
-        <v>0.0006130472414455183</v>
+        <v>0.0007512850885364513</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2151310879355677</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2215112671408974</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2.59307468535772</v>
       </c>
       <c r="L3">
-        <v>7.596969356649169</v>
+        <v>0.9658458582788398</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.9903098623734223</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.865697779602954</v>
+        <v>1.605494096547034</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.7594574070053</v>
+        <v>0.1005662410095809</v>
       </c>
       <c r="E4">
-        <v>0.7235180553331944</v>
+        <v>0.6274972369935483</v>
       </c>
       <c r="F4">
-        <v>8.314603995113231</v>
+        <v>3.255250218288154</v>
       </c>
       <c r="G4">
-        <v>0.00063587656162879</v>
+        <v>0.0007602478341211413</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2120189818237961</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1994376430484444</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.330095606006708</v>
       </c>
       <c r="L4">
-        <v>6.723421890836022</v>
+        <v>0.8703993799412615</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.030649925790478</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.737236341435448</v>
+        <v>1.545147734731302</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7147052000003953</v>
+        <v>0.09758818630931643</v>
       </c>
       <c r="E5">
-        <v>0.6875654845222243</v>
+        <v>0.6014401166306484</v>
       </c>
       <c r="F5">
-        <v>7.839456939907279</v>
+        <v>3.128873650612746</v>
       </c>
       <c r="G5">
-        <v>0.0006449366691445865</v>
+        <v>0.0007639388081883066</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2119496813698696</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.190695301755138</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.224459239955351</v>
       </c>
       <c r="L5">
-        <v>6.383303715218034</v>
+        <v>0.8320651027407564</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.047564390778646</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.716038061358518</v>
+        <v>1.535176188991983</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7074468157632623</v>
+        <v>0.09710042831173382</v>
       </c>
       <c r="E6">
-        <v>0.681678565999853</v>
+        <v>0.5971361601439895</v>
       </c>
       <c r="F6">
-        <v>7.762455048552141</v>
+        <v>3.108061359589925</v>
       </c>
       <c r="G6">
-        <v>0.0006464299860737769</v>
+        <v>0.0007645541917939435</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2120031399388296</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1892561316423311</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.207002190942433</v>
       </c>
       <c r="L6">
-        <v>6.327627884486674</v>
+        <v>0.8257307030224865</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.05040094409933</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.863955909016397</v>
+        <v>1.604676885462709</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.7588416208609488</v>
+        <v>0.100525614641974</v>
       </c>
       <c r="E7">
-        <v>0.7230272809633789</v>
+        <v>0.6271442347668383</v>
       </c>
       <c r="F7">
-        <v>8.308061844838505</v>
+        <v>3.253533995967501</v>
       </c>
       <c r="G7">
-        <v>0.0006359995642576789</v>
+        <v>0.0007602974479220735</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2120135422020617</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.199318849036441</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.328665157643385</v>
       </c>
       <c r="L7">
-        <v>6.718778164475253</v>
+        <v>0.8698802522025062</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.030876151420536</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.542630093277353</v>
+        <v>1.919388581410118</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.019781857427745</v>
+        <v>0.116748578363854</v>
       </c>
       <c r="E8">
-        <v>0.9222362514682487</v>
+        <v>0.7635495866949711</v>
       </c>
       <c r="F8">
-        <v>11.08668536208523</v>
+        <v>3.924039421507757</v>
       </c>
       <c r="G8">
-        <v>0.0005874040778184596</v>
+        <v>0.0007418352580303988</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2234452406630325</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2462881797662355</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.879821990711321</v>
       </c>
       <c r="L8">
-        <v>8.603172073505164</v>
+        <v>1.069914317097414</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.9489717603473267</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.135421883245499</v>
+        <v>2.575788065965639</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.907801577970957</v>
+        <v>0.1540497569336452</v>
       </c>
       <c r="E9">
-        <v>1.508292945381669</v>
+        <v>1.053386538281956</v>
       </c>
       <c r="F9">
-        <v>20.48626360414136</v>
+        <v>5.382483809177302</v>
       </c>
       <c r="G9">
-        <v>0.0004565496573574953</v>
+        <v>0.0007063035794190628</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4.036685511746697</v>
       </c>
       <c r="L9">
-        <v>14.01064945217385</v>
+        <v>1.489151640720138</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.805891709076775</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.135421883245499</v>
+        <v>3.09453264325964</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.907801577970957</v>
+        <v>0.1866872995301492</v>
       </c>
       <c r="E10">
-        <v>1.508292945381669</v>
+        <v>1.29022701313194</v>
       </c>
       <c r="F10">
-        <v>20.48626360414136</v>
+        <v>6.592288056691132</v>
       </c>
       <c r="G10">
-        <v>0.0004565496573574953</v>
+        <v>0.0006800083988327576</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>4.963812778890713</v>
       </c>
       <c r="L10">
-        <v>14.01064945217385</v>
+        <v>1.823739028095105</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.7141592321876615</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.135421883245499</v>
+        <v>3.342143930364955</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.907801577970957</v>
+        <v>0.2032538865526874</v>
       </c>
       <c r="E11">
-        <v>1.508292945381669</v>
+        <v>1.406399934048068</v>
       </c>
       <c r="F11">
-        <v>20.48626360414136</v>
+        <v>7.188155749701849</v>
       </c>
       <c r="G11">
-        <v>0.0004565496573574953</v>
+        <v>0.0006678219212016393</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>5.411787455799555</v>
       </c>
       <c r="L11">
-        <v>14.01064945217385</v>
+        <v>1.984775630060057</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.6761356073685505</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.135421883245499</v>
+        <v>3.437987457760585</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.907801577970957</v>
+        <v>0.2098414500161567</v>
       </c>
       <c r="E12">
-        <v>1.508292945381669</v>
+        <v>1.451982174488549</v>
       </c>
       <c r="F12">
-        <v>20.48626360414136</v>
+        <v>7.422097074463494</v>
       </c>
       <c r="G12">
-        <v>0.0004565496573574953</v>
+        <v>0.0006631541506213736</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>5.586269917579273</v>
       </c>
       <c r="L12">
-        <v>14.01064945217385</v>
+        <v>2.047368983814636</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.6623590578063698</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.135421883245499</v>
+        <v>3.417245763950064</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.907801577970957</v>
+        <v>0.2084074424675464</v>
       </c>
       <c r="E13">
-        <v>1.508292945381669</v>
+        <v>1.442087189916478</v>
       </c>
       <c r="F13">
-        <v>20.48626360414136</v>
+        <v>7.37131102722995</v>
       </c>
       <c r="G13">
-        <v>0.0004565496573574953</v>
+        <v>0.0006641621925123573</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>5.548455990983172</v>
       </c>
       <c r="L13">
-        <v>14.01064945217385</v>
+        <v>2.033810171058519</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.6652967318893559</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.135421883245499</v>
+        <v>3.349984669352295</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.907801577970957</v>
+        <v>0.2037890976811951</v>
       </c>
       <c r="E14">
-        <v>1.508292945381669</v>
+        <v>1.410115555092631</v>
       </c>
       <c r="F14">
-        <v>20.48626360414136</v>
+        <v>7.207224044044779</v>
       </c>
       <c r="G14">
-        <v>0.0004565496573574953</v>
+        <v>0.0006674391039470956</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>5.426037861444684</v>
       </c>
       <c r="L14">
-        <v>14.01064945217385</v>
+        <v>1.989890602629032</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.6749891364600629</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.135421883245499</v>
+        <v>3.309069850234664</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.907801577970957</v>
+        <v>0.2010034669255134</v>
       </c>
       <c r="E15">
-        <v>1.508292945381669</v>
+        <v>1.390752298419997</v>
       </c>
       <c r="F15">
-        <v>20.48626360414136</v>
+        <v>7.107857484354298</v>
       </c>
       <c r="G15">
-        <v>0.0004565496573574953</v>
+        <v>0.0006694386849835276</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5.351721303673997</v>
       </c>
       <c r="L15">
-        <v>14.01064945217385</v>
+        <v>1.963210362270416</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.6810100912592958</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.135421883245499</v>
+        <v>3.078617110993889</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.907801577970957</v>
+        <v>0.1856445212639386</v>
       </c>
       <c r="E16">
-        <v>1.508292945381669</v>
+        <v>1.282834242797961</v>
       </c>
       <c r="F16">
-        <v>20.48626360414136</v>
+        <v>6.554401635678516</v>
       </c>
       <c r="G16">
-        <v>0.0004565496573574953</v>
+        <v>0.000680798652984844</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>4.935149184867129</v>
       </c>
       <c r="L16">
-        <v>14.01064945217385</v>
+        <v>1.813419804158599</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.7167258564657502</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.135421883245499</v>
+        <v>2.940479002036341</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.907801577970957</v>
+        <v>0.1767045711973196</v>
       </c>
       <c r="E17">
-        <v>1.508292945381669</v>
+        <v>1.219024532421102</v>
       </c>
       <c r="F17">
-        <v>20.48626360414136</v>
+        <v>6.227635362125937</v>
       </c>
       <c r="G17">
-        <v>0.0004565496573574953</v>
+        <v>0.0006876970803157459</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>4.686984828734182</v>
       </c>
       <c r="L17">
-        <v>14.01064945217385</v>
+        <v>1.724005980158722</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.7396421808999136</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.135421883245499</v>
+        <v>2.862091116216391</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.907801577970957</v>
+        <v>0.1717194738488104</v>
       </c>
       <c r="E18">
-        <v>1.508292945381669</v>
+        <v>1.183088583210562</v>
       </c>
       <c r="F18">
-        <v>20.48626360414136</v>
+        <v>6.043844187357678</v>
       </c>
       <c r="G18">
-        <v>0.0004565496573574953</v>
+        <v>0.0006916452462703708</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>4.546636271410506</v>
       </c>
       <c r="L18">
-        <v>14.01064945217385</v>
+        <v>1.67338374649313</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.7531654025552967</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.135421883245499</v>
+        <v>2.835722563968943</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.907801577970957</v>
+        <v>0.1700568199358372</v>
       </c>
       <c r="E19">
-        <v>1.508292945381669</v>
+        <v>1.171043068991807</v>
       </c>
       <c r="F19">
-        <v>20.48626360414136</v>
+        <v>5.982283653517129</v>
       </c>
       <c r="G19">
-        <v>0.0004565496573574953</v>
+        <v>0.0006929791971967098</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>4.499498974989734</v>
       </c>
       <c r="L19">
-        <v>14.01064945217385</v>
+        <v>1.656373408645607</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.7578005698217396</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.135421883245499</v>
+        <v>2.955071147203228</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.907801577970957</v>
+        <v>0.1776395790285079</v>
       </c>
       <c r="E20">
-        <v>1.508292945381669</v>
+        <v>1.225735560312657</v>
       </c>
       <c r="F20">
-        <v>20.48626360414136</v>
+        <v>6.261978876419988</v>
       </c>
       <c r="G20">
-        <v>0.0004565496573574953</v>
+        <v>0.0006869648939682789</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4.71314826640301</v>
       </c>
       <c r="L20">
-        <v>14.01064945217385</v>
+        <v>1.733438602590098</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.7371666913949042</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.135421883245499</v>
+        <v>3.369680702391918</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.907801577970957</v>
+        <v>0.2051364573712249</v>
       </c>
       <c r="E21">
-        <v>1.508292945381669</v>
+        <v>1.419459640389135</v>
       </c>
       <c r="F21">
-        <v>20.48626360414136</v>
+        <v>7.255178608405288</v>
       </c>
       <c r="G21">
-        <v>0.0004565496573574953</v>
+        <v>0.0006664782296961416</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>5.46185342176264</v>
       </c>
       <c r="L21">
-        <v>14.01064945217385</v>
+        <v>2.002743875638913</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.6721245263382585</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.135421883245499</v>
+        <v>3.653041615214818</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.907801577970957</v>
+        <v>0.2249858034126362</v>
       </c>
       <c r="E22">
-        <v>1.508292945381669</v>
+        <v>1.555609758656246</v>
       </c>
       <c r="F22">
-        <v>20.48626360414136</v>
+        <v>7.953891645150861</v>
       </c>
       <c r="G22">
-        <v>0.0004565496573574953</v>
+        <v>0.0006527654693356068</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>5.980165627178138</v>
       </c>
       <c r="L22">
-        <v>14.01064945217385</v>
+        <v>2.188384878634963</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.6333027395140576</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.135421883245499</v>
+        <v>3.500508561120114</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.907801577970957</v>
+        <v>0.2141921159502118</v>
       </c>
       <c r="E23">
-        <v>1.508292945381669</v>
+        <v>1.481912318681495</v>
       </c>
       <c r="F23">
-        <v>20.48626360414136</v>
+        <v>7.57571320503223</v>
       </c>
       <c r="G23">
-        <v>0.0004565496573574953</v>
+        <v>0.0006601223963033616</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>5.700435441414982</v>
       </c>
       <c r="L23">
-        <v>14.01064945217385</v>
+        <v>2.088282771313999</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.6536490887584563</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.135421883245499</v>
+        <v>2.948470860669147</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.907801577970957</v>
+        <v>0.1772163852044883</v>
       </c>
       <c r="E24">
-        <v>1.508292945381669</v>
+        <v>1.222699198078203</v>
       </c>
       <c r="F24">
-        <v>20.48626360414136</v>
+        <v>6.24643961805927</v>
       </c>
       <c r="G24">
-        <v>0.0004565496573574953</v>
+        <v>0.0006872959693375403</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4.701312612646745</v>
       </c>
       <c r="L24">
-        <v>14.01064945217385</v>
+        <v>1.729171699697332</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.7382847816588836</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.135421883245499</v>
+        <v>2.392860615613245</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.907801577970957</v>
+        <v>0.143201682341271</v>
       </c>
       <c r="E25">
-        <v>1.508292945381669</v>
+        <v>0.9716704635477811</v>
       </c>
       <c r="F25">
-        <v>20.48626360414136</v>
+        <v>4.967976849899486</v>
       </c>
       <c r="G25">
-        <v>0.0004565496573574953</v>
+        <v>0.0007158981047698125</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3309938555039906</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3699133487070299</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3.712802149771989</v>
       </c>
       <c r="L25">
-        <v>14.01064945217385</v>
+        <v>1.371929320037111</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.8424749225280621</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.006928374290851</v>
+        <v>3.370562266105594</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1214591363663544</v>
+        <v>0.003934467838684341</v>
       </c>
       <c r="E2">
-        <v>0.8017178152267803</v>
+        <v>3.067871909799237</v>
       </c>
       <c r="F2">
-        <v>4.113898456710018</v>
+        <v>1.076849739959513</v>
       </c>
       <c r="G2">
-        <v>0.0007368965778307779</v>
+        <v>1.082178613918558</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.520641012024484</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.033377376734137</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.125630867591241</v>
+        <v>2.480850855940389</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9278836174213723</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.755719593025702</v>
+        <v>2.934038092960179</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1081694931855708</v>
+        <v>0.00298565169606313</v>
       </c>
       <c r="E3">
-        <v>0.6924775664127836</v>
+        <v>2.69593959931089</v>
       </c>
       <c r="F3">
-        <v>3.572958454089871</v>
+        <v>0.92118668633249</v>
       </c>
       <c r="G3">
-        <v>0.0007512850885364513</v>
+        <v>0.9155079885191526</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4556784146887196</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.59307468535772</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9658458582788398</v>
+        <v>2.147222477562309</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9903098623734223</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.605494096547034</v>
+        <v>2.669108907543887</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1005662410095809</v>
+        <v>0.002539504245275381</v>
       </c>
       <c r="E4">
-        <v>0.6274972369935483</v>
+        <v>2.469390868015907</v>
       </c>
       <c r="F4">
-        <v>3.255250218288154</v>
+        <v>0.8310012927056363</v>
       </c>
       <c r="G4">
-        <v>0.0007602478341211413</v>
+        <v>0.8191859703409961</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4189451298978071</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.330095606006708</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8703993799412615</v>
+        <v>1.944359315861163</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.030649925790478</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.545147734731302</v>
+        <v>2.561793863936316</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09758818630931643</v>
+        <v>0.002387552691255124</v>
       </c>
       <c r="E5">
-        <v>0.6014401166306484</v>
+        <v>2.377440856318913</v>
       </c>
       <c r="F5">
-        <v>3.128873650612746</v>
+        <v>0.7954410829330811</v>
       </c>
       <c r="G5">
-        <v>0.0007639388081883066</v>
+        <v>0.7812568076616202</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4046804230357566</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.224459239955351</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8320651027407564</v>
+        <v>1.862089888274653</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.047564390778646</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.535176188991983</v>
+        <v>2.544009631869187</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09710042831173382</v>
+        <v>0.002364004354328486</v>
       </c>
       <c r="E6">
-        <v>0.5971361601439895</v>
+        <v>2.362192643930271</v>
       </c>
       <c r="F6">
-        <v>3.108061359589925</v>
+        <v>0.7896037649148013</v>
       </c>
       <c r="G6">
-        <v>0.0007645541917939435</v>
+        <v>0.7750334136392212</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4023518988821309</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.207002190942433</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8257307030224865</v>
+        <v>1.848450468887478</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.05040094409933</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.604676885462709</v>
+        <v>2.667659171532591</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.100525614641974</v>
+        <v>0.002537339582106668</v>
       </c>
       <c r="E7">
-        <v>0.6271442347668383</v>
+        <v>2.468149405946491</v>
       </c>
       <c r="F7">
-        <v>3.253533995967501</v>
+        <v>0.8305170986307928</v>
       </c>
       <c r="G7">
-        <v>0.0007602974479220735</v>
+        <v>0.8186693248988774</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4187500096968506</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.328665157643385</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8698802522025062</v>
+        <v>1.943248311430295</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.030876151420536</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.919388581410118</v>
+        <v>3.219321032064215</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.116748578363854</v>
+        <v>0.003576149274563178</v>
       </c>
       <c r="E8">
-        <v>0.7635495866949711</v>
+        <v>2.939196376753728</v>
       </c>
       <c r="F8">
-        <v>3.924039421507757</v>
+        <v>1.021953258529479</v>
       </c>
       <c r="G8">
-        <v>0.0007418352580303988</v>
+        <v>1.023341917755218</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4975309595558741</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.879821990711321</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1.069914317097414</v>
+        <v>2.365339671792725</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9489717603473267</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.575788065965639</v>
+        <v>4.332541072396054</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1540497569336452</v>
+        <v>0.006928891694448325</v>
       </c>
       <c r="E9">
-        <v>1.053386538281956</v>
+        <v>3.881905381605208</v>
       </c>
       <c r="F9">
-        <v>5.382483809177302</v>
+        <v>1.448595597428238</v>
       </c>
       <c r="G9">
-        <v>0.0007063035794190628</v>
+        <v>1.482148143160543</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6815958446006221</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.036685511746697</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.489151640720138</v>
+        <v>3.213998637948748</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.805891709076775</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.09453264325964</v>
+        <v>5.180527427371999</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1866872995301492</v>
+        <v>0.01058108339571895</v>
       </c>
       <c r="E10">
-        <v>1.29022701313194</v>
+        <v>4.593543872062071</v>
       </c>
       <c r="F10">
-        <v>6.592288056691132</v>
+        <v>1.806958646770411</v>
       </c>
       <c r="G10">
-        <v>0.0006800083988327576</v>
+        <v>1.870000676744411</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.8422301020506779</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.963812778890713</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.823739028095105</v>
+        <v>3.858653459602635</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7141592321876615</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.342143930364955</v>
+        <v>5.57575087953353</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2032538865526874</v>
+        <v>0.01260966342989889</v>
       </c>
       <c r="E11">
-        <v>1.406399934048068</v>
+        <v>4.92344629572375</v>
       </c>
       <c r="F11">
-        <v>7.188155749701849</v>
+        <v>1.983462577546007</v>
       </c>
       <c r="G11">
-        <v>0.0006678219212016393</v>
+        <v>2.061764679614271</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.9228345422220343</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.411787455799555</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.984775630060057</v>
+        <v>4.158769654382922</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6761356073685505</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.437987457760585</v>
+        <v>5.727061724680311</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2098414500161567</v>
+        <v>0.01344202741128875</v>
       </c>
       <c r="E12">
-        <v>1.451982174488549</v>
+        <v>5.049462871362664</v>
       </c>
       <c r="F12">
-        <v>7.422097074463494</v>
+        <v>2.052617582175202</v>
       </c>
       <c r="G12">
-        <v>0.0006631541506213736</v>
+        <v>2.137022552928642</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.9546454228418781</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.586269917579273</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>2.047368983814636</v>
+        <v>4.273627074800117</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6623590578063698</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.417245763950064</v>
+        <v>5.694395863331522</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2084074424675464</v>
+        <v>0.01325970203604854</v>
       </c>
       <c r="E13">
-        <v>1.442087189916478</v>
+        <v>5.022270894319377</v>
       </c>
       <c r="F13">
-        <v>7.37131102722995</v>
+        <v>2.037614014991561</v>
       </c>
       <c r="G13">
-        <v>0.0006641621925123573</v>
+        <v>2.120689145495732</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.9477334431994109</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.548455990983172</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>2.033810171058519</v>
+        <v>4.248832700032892</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6652967318893559</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.349984669352295</v>
+        <v>5.588164475342808</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2037890976811951</v>
+        <v>0.01267678269790729</v>
       </c>
       <c r="E14">
-        <v>1.410115555092631</v>
+        <v>4.933790636302064</v>
       </c>
       <c r="F14">
-        <v>7.207224044044779</v>
+        <v>1.989103159584246</v>
       </c>
       <c r="G14">
-        <v>0.0006674391039470956</v>
+        <v>2.067900473328677</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.9254245279419422</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.426037861444684</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.989890602629032</v>
+        <v>4.168193381082688</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6749891364600629</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.309069850234664</v>
+        <v>5.523318618007579</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2010034669255134</v>
+        <v>0.01232846353412853</v>
       </c>
       <c r="E15">
-        <v>1.390752298419997</v>
+        <v>4.879742411630104</v>
       </c>
       <c r="F15">
-        <v>7.107857484354298</v>
+        <v>1.959702954701143</v>
       </c>
       <c r="G15">
-        <v>0.0006694386849835276</v>
+        <v>2.035924141598031</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.9119340851410414</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.351721303673997</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.963210362270416</v>
+        <v>4.11896430561336</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6810100912592958</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.078617110993889</v>
+        <v>5.154912695531323</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1856445212639386</v>
+        <v>0.01045682223292133</v>
       </c>
       <c r="E16">
-        <v>1.282834242797961</v>
+        <v>4.57212470609673</v>
       </c>
       <c r="F16">
-        <v>6.554401635678516</v>
+        <v>1.795725818830206</v>
       </c>
       <c r="G16">
-        <v>0.000680798652984844</v>
+        <v>1.8578124841018</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.8371306414513242</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.935149184867129</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.813419804158599</v>
+        <v>3.839196480166493</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7167258564657502</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.940479002036341</v>
+        <v>4.93152337222358</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1767045711973196</v>
+        <v>0.009410094083053266</v>
       </c>
       <c r="E17">
-        <v>1.219024532421102</v>
+        <v>4.385125885347577</v>
       </c>
       <c r="F17">
-        <v>6.227635362125937</v>
+        <v>1.698833102186683</v>
       </c>
       <c r="G17">
-        <v>0.0006876970803157459</v>
+        <v>1.752759865422803</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7933046724168946</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.686984828734182</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.724005980158722</v>
+        <v>3.669472813734956</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7396421808999136</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.862091116216391</v>
+        <v>4.803907571475349</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1717194738488104</v>
+        <v>0.008841805293265281</v>
       </c>
       <c r="E18">
-        <v>1.183088583210562</v>
+        <v>4.278136382818758</v>
       </c>
       <c r="F18">
-        <v>6.043844187357678</v>
+        <v>1.644345889402373</v>
       </c>
       <c r="G18">
-        <v>0.0006916452462703708</v>
+        <v>1.693748869373707</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7687918180701843</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.546636271410506</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.67338374649313</v>
+        <v>3.572482562634718</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7531654025552967</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.835722563968943</v>
+        <v>4.760840770471304</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1700568199358372</v>
+        <v>0.008654879615020761</v>
       </c>
       <c r="E19">
-        <v>1.171043068991807</v>
+        <v>4.242003394706359</v>
       </c>
       <c r="F19">
-        <v>5.982283653517129</v>
+        <v>1.626100464928157</v>
       </c>
       <c r="G19">
-        <v>0.0006929791971967098</v>
+        <v>1.673999273046576</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7606058366088178</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.499498974989734</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.656373408645607</v>
+        <v>3.539745353151773</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7578005698217396</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.955071147203228</v>
+        <v>4.955211381377921</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1776395790285079</v>
+        <v>0.009517950489739135</v>
       </c>
       <c r="E20">
-        <v>1.225735560312657</v>
+        <v>4.404972163583835</v>
       </c>
       <c r="F20">
-        <v>6.261978876419988</v>
+        <v>1.709016332360079</v>
       </c>
       <c r="G20">
-        <v>0.0006869648939682789</v>
+        <v>1.763793788448453</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.7978967560442243</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.71314826640301</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.733438602590098</v>
+        <v>3.687473448260562</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7371666913949042</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.369680702391918</v>
+        <v>5.619319964041836</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2051364573712249</v>
+        <v>0.01284615604783568</v>
       </c>
       <c r="E21">
-        <v>1.419459640389135</v>
+        <v>4.959748077777249</v>
       </c>
       <c r="F21">
-        <v>7.255178608405288</v>
+        <v>2.003285742952414</v>
       </c>
       <c r="G21">
-        <v>0.0006664782296961416</v>
+        <v>2.083330231053964</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.9319404302186172</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.46185342176264</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>2.002743875638913</v>
+        <v>4.191844299391732</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6721245263382585</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.653041615214818</v>
+        <v>6.06312863003626</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2249858034126362</v>
+        <v>0.0154025153017745</v>
       </c>
       <c r="E22">
-        <v>1.555609758656246</v>
+        <v>5.328797926077328</v>
       </c>
       <c r="F22">
-        <v>7.953891645150861</v>
+        <v>2.209339985480383</v>
       </c>
       <c r="G22">
-        <v>0.0006527654693356068</v>
+        <v>2.307823663029239</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.027175419262193</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.980165627178138</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>2.188384878634963</v>
+        <v>4.528664419147731</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6333027395140576</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.500508561120114</v>
+        <v>5.825258081543893</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2141921159502118</v>
+        <v>0.01399886511810244</v>
       </c>
       <c r="E23">
-        <v>1.481912318681495</v>
+        <v>5.131160782215574</v>
       </c>
       <c r="F23">
-        <v>7.57571320503223</v>
+        <v>2.097964842265199</v>
       </c>
       <c r="G23">
-        <v>0.0006601223963033616</v>
+        <v>2.186408446171271</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.9755707010095591</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.700435441414982</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>2.088282771313999</v>
+        <v>4.348155784421579</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6536490887584563</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.948470860669147</v>
+        <v>4.944499518988323</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1772163852044883</v>
+        <v>0.009469085124960586</v>
       </c>
       <c r="E24">
-        <v>1.222699198078203</v>
+        <v>4.395998060561766</v>
       </c>
       <c r="F24">
-        <v>6.24643961805927</v>
+        <v>1.704408728744752</v>
       </c>
       <c r="G24">
-        <v>0.0006872959693375403</v>
+        <v>1.758801069302422</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7958185617344498</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.701312612646745</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.729171699697332</v>
+        <v>3.679333552045193</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7382847816588836</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.392860615613245</v>
+        <v>4.02697983090718</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.143201682341271</v>
+        <v>0.005845040654632427</v>
       </c>
       <c r="E25">
-        <v>0.9716704635477811</v>
+        <v>3.624141676062493</v>
       </c>
       <c r="F25">
-        <v>4.967976849899486</v>
+        <v>1.326401637218794</v>
       </c>
       <c r="G25">
-        <v>0.0007158981047698125</v>
+        <v>1.350393713032787</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6279399644440673</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.712802149771989</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1.371929320037111</v>
+        <v>2.981377951173272</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8424749225280621</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.370562266105594</v>
+        <v>1.770123734158688</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.003934467838684341</v>
+        <v>0.003338351862899103</v>
       </c>
       <c r="E2">
-        <v>3.067871909799237</v>
+        <v>1.252180992107384</v>
       </c>
       <c r="F2">
-        <v>1.076849739959513</v>
+        <v>0.6385628759164916</v>
       </c>
       <c r="G2">
-        <v>1.082178613918558</v>
+        <v>0.5072477128966142</v>
       </c>
       <c r="H2">
-        <v>0.520641012024484</v>
+        <v>0.5500569983951777</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.480850855940389</v>
+        <v>0.855296197323014</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.934038092960179</v>
+        <v>1.642592827950239</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.00298565169606313</v>
+        <v>0.00351852692437582</v>
       </c>
       <c r="E3">
-        <v>2.69593959931089</v>
+        <v>1.135848692201591</v>
       </c>
       <c r="F3">
-        <v>0.92118668633249</v>
+        <v>0.6196949980858193</v>
       </c>
       <c r="G3">
-        <v>0.9155079885191526</v>
+        <v>0.485844276608745</v>
       </c>
       <c r="H3">
-        <v>0.4556784146887196</v>
+        <v>0.5493356329887149</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.147222477562309</v>
+        <v>0.7525873294032408</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.669108907543887</v>
+        <v>1.564482838566448</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.002539504245275381</v>
+        <v>0.003648686322375028</v>
       </c>
       <c r="E4">
-        <v>2.469390868015907</v>
+        <v>1.064405800995274</v>
       </c>
       <c r="F4">
-        <v>0.8310012927056363</v>
+        <v>0.6091672056908948</v>
       </c>
       <c r="G4">
-        <v>0.8191859703409961</v>
+        <v>0.4737199112432364</v>
       </c>
       <c r="H4">
-        <v>0.4189451298978071</v>
+        <v>0.5496884397640542</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.944359315861163</v>
+        <v>0.6893685676346024</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.561793863936316</v>
+        <v>1.532701153963103</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.002387552691255124</v>
+        <v>0.00370655126145536</v>
       </c>
       <c r="E5">
-        <v>2.377440856318913</v>
+        <v>1.035290613362577</v>
       </c>
       <c r="F5">
-        <v>0.7954410829330811</v>
+        <v>0.6051391191049476</v>
       </c>
       <c r="G5">
-        <v>0.7812568076616202</v>
+        <v>0.469030445300362</v>
       </c>
       <c r="H5">
-        <v>0.4046804230357566</v>
+        <v>0.550030338678539</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.862089888274653</v>
+        <v>0.6635674818862469</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.544009631869187</v>
+        <v>1.527426772819695</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002364004354328486</v>
+        <v>0.003716448517431914</v>
       </c>
       <c r="E6">
-        <v>2.362192643930271</v>
+        <v>1.030456020840859</v>
       </c>
       <c r="F6">
-        <v>0.7896037649148013</v>
+        <v>0.6044859773283804</v>
       </c>
       <c r="G6">
-        <v>0.7750334136392212</v>
+        <v>0.468266809342893</v>
       </c>
       <c r="H6">
-        <v>0.4023518988821309</v>
+        <v>0.5500990197551374</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.848450468887478</v>
+        <v>0.6592808839926079</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.667659171532591</v>
+        <v>1.564054022304447</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.002537339582106668</v>
+        <v>0.003649447291616426</v>
       </c>
       <c r="E7">
-        <v>2.468149405946491</v>
+        <v>1.064013147276967</v>
       </c>
       <c r="F7">
-        <v>0.8305170986307928</v>
+        <v>0.609111825330757</v>
       </c>
       <c r="G7">
-        <v>0.8186693248988774</v>
+        <v>0.4736556558899565</v>
       </c>
       <c r="H7">
-        <v>0.4187500096968506</v>
+        <v>0.5496922511095335</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.943248311430295</v>
+        <v>0.6890207626307188</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.219321032064215</v>
+        <v>1.726110558944356</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.003576149274563178</v>
+        <v>0.003396369526026177</v>
       </c>
       <c r="E8">
-        <v>2.939196376753728</v>
+        <v>1.212073725216953</v>
       </c>
       <c r="F8">
-        <v>1.021953258529479</v>
+        <v>0.6318355462696132</v>
       </c>
       <c r="G8">
-        <v>1.023341917755218</v>
+        <v>0.499653903795263</v>
       </c>
       <c r="H8">
-        <v>0.4975309595558741</v>
+        <v>0.5496419315555556</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.365339671792725</v>
+        <v>0.819914361445143</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.332541072396054</v>
+        <v>2.045473510088129</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006928891694448325</v>
+        <v>0.003059048911914886</v>
       </c>
       <c r="E9">
-        <v>3.881905381605208</v>
+        <v>1.502238295003508</v>
       </c>
       <c r="F9">
-        <v>1.448595597428238</v>
+        <v>0.6849573692318245</v>
       </c>
       <c r="G9">
-        <v>1.482148143160543</v>
+        <v>0.5589164174766097</v>
       </c>
       <c r="H9">
-        <v>0.6815958446006221</v>
+        <v>0.5559467457455582</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.213998637948748</v>
+        <v>1.07537901880255</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.180527427371999</v>
+        <v>2.281135022391311</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01058108339571895</v>
+        <v>0.002913735497218184</v>
       </c>
       <c r="E10">
-        <v>4.593543872062071</v>
+        <v>1.715249659232029</v>
       </c>
       <c r="F10">
-        <v>1.806958646770411</v>
+        <v>0.7294482764373384</v>
       </c>
       <c r="G10">
-        <v>1.870000676744411</v>
+        <v>0.6077953319822882</v>
       </c>
       <c r="H10">
-        <v>0.8422301020506779</v>
+        <v>0.5646085460074914</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.858653459602635</v>
+        <v>1.262369446990931</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.57575087953353</v>
+        <v>2.388584198396586</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01260966342989889</v>
+        <v>0.002871133208127929</v>
       </c>
       <c r="E11">
-        <v>4.92344629572375</v>
+        <v>1.812107136054436</v>
       </c>
       <c r="F11">
-        <v>1.983462577546007</v>
+        <v>0.7509274965451738</v>
       </c>
       <c r="G11">
-        <v>2.061764679614271</v>
+        <v>0.6312541892335162</v>
       </c>
       <c r="H11">
-        <v>0.9228345422220343</v>
+        <v>0.5694514539569866</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.158769654382922</v>
+        <v>1.347296310821321</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.727061724680311</v>
+        <v>2.429308768186559</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01344202741128875</v>
+        <v>0.002858485361358021</v>
       </c>
       <c r="E12">
-        <v>5.049462871362664</v>
+        <v>1.848777318871896</v>
       </c>
       <c r="F12">
-        <v>2.052617582175202</v>
+        <v>0.7592437081703736</v>
       </c>
       <c r="G12">
-        <v>2.137022552928642</v>
+        <v>0.6403185096981758</v>
       </c>
       <c r="H12">
-        <v>0.9546454228418781</v>
+        <v>0.5714173611673914</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.273627074800117</v>
+        <v>1.379437015373298</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.694395863331522</v>
+        <v>2.420536396474688</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01325970203604854</v>
+        <v>0.002861052617010529</v>
       </c>
       <c r="E13">
-        <v>5.022270894319377</v>
+        <v>1.840880101981497</v>
       </c>
       <c r="F13">
-        <v>2.037614014991561</v>
+        <v>0.7574444797370319</v>
       </c>
       <c r="G13">
-        <v>2.120689145495732</v>
+        <v>0.6383582176520406</v>
       </c>
       <c r="H13">
-        <v>0.9477334431994109</v>
+        <v>0.5709880616189196</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.248832700032892</v>
+        <v>1.372515790244677</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.588164475342808</v>
+        <v>2.391933910107184</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01267678269790729</v>
+        <v>0.002870022212309919</v>
       </c>
       <c r="E14">
-        <v>4.933790636302064</v>
+        <v>1.815124175595827</v>
       </c>
       <c r="F14">
-        <v>1.989103159584246</v>
+        <v>0.7516079947284879</v>
       </c>
       <c r="G14">
-        <v>2.067900473328677</v>
+        <v>0.6319962607827563</v>
       </c>
       <c r="H14">
-        <v>0.9254245279419422</v>
+        <v>0.5696105320679692</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.168193381082688</v>
+        <v>1.349940929797754</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.523318618007579</v>
+        <v>2.374418755409238</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01232846353412853</v>
+        <v>0.002875973323257952</v>
       </c>
       <c r="E15">
-        <v>4.879742411630104</v>
+        <v>1.799346888241871</v>
       </c>
       <c r="F15">
-        <v>1.959702954701143</v>
+        <v>0.7480568701491279</v>
       </c>
       <c r="G15">
-        <v>2.035924141598031</v>
+        <v>0.6281230942325351</v>
       </c>
       <c r="H15">
-        <v>0.9119340851410414</v>
+        <v>0.5687840120207852</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.11896430561336</v>
+        <v>1.336110678750401</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.154912695531323</v>
+        <v>2.274117955499548</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01045682223292133</v>
+        <v>0.002917001511198336</v>
       </c>
       <c r="E16">
-        <v>4.57212470609673</v>
+        <v>1.708918806992159</v>
       </c>
       <c r="F16">
-        <v>1.795725818830206</v>
+        <v>0.7280698686031712</v>
       </c>
       <c r="G16">
-        <v>1.8578124841018</v>
+        <v>0.6062872896081046</v>
       </c>
       <c r="H16">
-        <v>0.8371306414513242</v>
+        <v>0.5643104017932217</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.839196480166493</v>
+        <v>1.256816563696077</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.93152337222358</v>
+        <v>2.212649947278408</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.009410094083053266</v>
+        <v>0.002948264429790015</v>
       </c>
       <c r="E17">
-        <v>4.385125885347577</v>
+        <v>1.653432103453326</v>
       </c>
       <c r="F17">
-        <v>1.698833102186683</v>
+        <v>0.7161290650273173</v>
       </c>
       <c r="G17">
-        <v>1.752759865422803</v>
+        <v>0.5932086740178875</v>
       </c>
       <c r="H17">
-        <v>0.7933046724168946</v>
+        <v>0.5617987326854177</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.669472813734956</v>
+        <v>1.20813754402883</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.803907571475349</v>
+        <v>2.177318248141489</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.008841805293265281</v>
+        <v>0.002968451677828554</v>
       </c>
       <c r="E18">
-        <v>4.278136382818758</v>
+        <v>1.621513706948264</v>
       </c>
       <c r="F18">
-        <v>1.644345889402373</v>
+        <v>0.7093775015155899</v>
       </c>
       <c r="G18">
-        <v>1.693748869373707</v>
+        <v>0.5858010688918682</v>
       </c>
       <c r="H18">
-        <v>0.7687918180701843</v>
+        <v>0.5604389119495465</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.572482562634718</v>
+        <v>1.180125833093427</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.760840770471304</v>
+        <v>2.16535948847104</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.008654879615020761</v>
+        <v>0.002975662384717026</v>
       </c>
       <c r="E19">
-        <v>4.242003394706359</v>
+        <v>1.610706063105965</v>
       </c>
       <c r="F19">
-        <v>1.626100464928157</v>
+        <v>0.7071114154572911</v>
       </c>
       <c r="G19">
-        <v>1.673999273046576</v>
+        <v>0.5833125578908493</v>
       </c>
       <c r="H19">
-        <v>0.7606058366088178</v>
+        <v>0.5599930017761778</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.539745353151773</v>
+        <v>1.170639338278306</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.955211381377921</v>
+        <v>2.219190929732008</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.009517950489739135</v>
+        <v>0.002944707407992908</v>
       </c>
       <c r="E20">
-        <v>4.404972163583835</v>
+        <v>1.659339174154184</v>
       </c>
       <c r="F20">
-        <v>1.709016332360079</v>
+        <v>0.7173880995323856</v>
       </c>
       <c r="G20">
-        <v>1.763793788448453</v>
+        <v>0.5945889903514967</v>
       </c>
       <c r="H20">
-        <v>0.7978967560442243</v>
+        <v>0.5620573091601955</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.687473448260562</v>
+        <v>1.213320834314629</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.619319964041836</v>
+        <v>2.400334174265254</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01284615604783568</v>
+        <v>0.00286729220118076</v>
       </c>
       <c r="E21">
-        <v>4.959748077777249</v>
+        <v>1.822689534565967</v>
       </c>
       <c r="F21">
-        <v>2.003285742952414</v>
+        <v>0.7533173254880978</v>
       </c>
       <c r="G21">
-        <v>2.083330231053964</v>
+        <v>0.6338599703992429</v>
       </c>
       <c r="H21">
-        <v>0.9319404302186172</v>
+        <v>0.570011545663192</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.191844299391732</v>
+        <v>1.356572233287409</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.06312863003626</v>
+        <v>2.518931340754193</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0154025153017745</v>
+        <v>0.00283705893572872</v>
       </c>
       <c r="E22">
-        <v>5.328797926077328</v>
+        <v>1.929403266300113</v>
       </c>
       <c r="F22">
-        <v>2.209339985480383</v>
+        <v>0.7778648475484431</v>
       </c>
       <c r="G22">
-        <v>2.307823663029239</v>
+        <v>0.6605829552904368</v>
       </c>
       <c r="H22">
-        <v>1.027175419262193</v>
+        <v>0.5759805531567395</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.528664419147731</v>
+        <v>1.450083267988987</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.825258081543893</v>
+        <v>2.455614405876076</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01399886511810244</v>
+        <v>0.002851296507301981</v>
       </c>
       <c r="E23">
-        <v>5.131160782215574</v>
+        <v>1.872452750045284</v>
       </c>
       <c r="F23">
-        <v>2.097964842265199</v>
+        <v>0.7646644731389927</v>
       </c>
       <c r="G23">
-        <v>2.186408446171271</v>
+        <v>0.6462220022613394</v>
       </c>
       <c r="H23">
-        <v>0.9755707010095591</v>
+        <v>0.5727235499865344</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.348155784421579</v>
+        <v>1.400184797893473</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.944499518988323</v>
+        <v>2.216233729562248</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.009469085124960586</v>
+        <v>0.002946308650933815</v>
       </c>
       <c r="E24">
-        <v>4.395998060561766</v>
+        <v>1.656668644532886</v>
       </c>
       <c r="F24">
-        <v>1.704408728744752</v>
+        <v>0.7168185372460272</v>
       </c>
       <c r="G24">
-        <v>1.758801069302422</v>
+        <v>0.5939646025265688</v>
       </c>
       <c r="H24">
-        <v>0.7958185617344498</v>
+        <v>0.5619401447281973</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.679333552045193</v>
+        <v>1.210977548206415</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.02697983090718</v>
+        <v>1.958902541013515</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.005845040654632427</v>
+        <v>0.003132713055075342</v>
       </c>
       <c r="E25">
-        <v>3.624141676062493</v>
+        <v>1.423767370630344</v>
       </c>
       <c r="F25">
-        <v>1.326401637218794</v>
+        <v>0.6696449648022309</v>
       </c>
       <c r="G25">
-        <v>1.350393713032787</v>
+        <v>0.5419679397720358</v>
       </c>
       <c r="H25">
-        <v>0.6279399644440673</v>
+        <v>0.5535426311665788</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.981377951173272</v>
+        <v>1.006395285445933</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.770123734158688</v>
+        <v>3.370562266105651</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.003338351862899103</v>
+        <v>0.003934467838684341</v>
       </c>
       <c r="E2">
-        <v>1.252180992107384</v>
+        <v>3.067871909799237</v>
       </c>
       <c r="F2">
-        <v>0.6385628759164916</v>
+        <v>1.076849739959513</v>
       </c>
       <c r="G2">
-        <v>0.5072477128966142</v>
+        <v>1.082178613918558</v>
       </c>
       <c r="H2">
-        <v>0.5500569983951777</v>
+        <v>0.5206410120243561</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.855296197323014</v>
+        <v>2.480850855940304</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.642592827950239</v>
+        <v>2.934038092959895</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.00351852692437582</v>
+        <v>0.002985651696244318</v>
       </c>
       <c r="E3">
-        <v>1.135848692201591</v>
+        <v>2.695939599310861</v>
       </c>
       <c r="F3">
-        <v>0.6196949980858193</v>
+        <v>0.9211866863324758</v>
       </c>
       <c r="G3">
-        <v>0.485844276608745</v>
+        <v>0.9155079885190673</v>
       </c>
       <c r="H3">
-        <v>0.5493356329887149</v>
+        <v>0.4556784146888191</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7525873294032408</v>
+        <v>2.147222477562366</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.564482838566448</v>
+        <v>2.669108907543716</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003648686322375028</v>
+        <v>0.002539504245278934</v>
       </c>
       <c r="E4">
-        <v>1.064405800995274</v>
+        <v>2.469390868015935</v>
       </c>
       <c r="F4">
-        <v>0.6091672056908948</v>
+        <v>0.8310012927056363</v>
       </c>
       <c r="G4">
-        <v>0.4737199112432364</v>
+        <v>0.8191859703409818</v>
       </c>
       <c r="H4">
-        <v>0.5496884397640542</v>
+        <v>0.4189451298978071</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6893685676346024</v>
+        <v>1.944359315861163</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.532701153963103</v>
+        <v>2.561793863936032</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.00370655126145536</v>
+        <v>0.002387552691264005</v>
       </c>
       <c r="E5">
-        <v>1.035290613362577</v>
+        <v>2.377440856318941</v>
       </c>
       <c r="F5">
-        <v>0.6051391191049476</v>
+        <v>0.7954410829330811</v>
       </c>
       <c r="G5">
-        <v>0.469030445300362</v>
+        <v>0.7812568076616628</v>
       </c>
       <c r="H5">
-        <v>0.550030338678539</v>
+        <v>0.4046804230357282</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6635674818862469</v>
+        <v>1.862089888274795</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.527426772819695</v>
+        <v>2.54400963186913</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003716448517431914</v>
+        <v>0.002364004354442173</v>
       </c>
       <c r="E6">
-        <v>1.030456020840859</v>
+        <v>2.3621926439303</v>
       </c>
       <c r="F6">
-        <v>0.6044859773283804</v>
+        <v>0.7896037649148013</v>
       </c>
       <c r="G6">
-        <v>0.468266809342893</v>
+        <v>0.7750334136392354</v>
       </c>
       <c r="H6">
-        <v>0.5500990197551374</v>
+        <v>0.4023518988821309</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6592808839926079</v>
+        <v>1.848450468887421</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.564054022304447</v>
+        <v>2.667659171532534</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003649447291616426</v>
+        <v>0.00253733958226654</v>
       </c>
       <c r="E7">
-        <v>1.064013147276967</v>
+        <v>2.468149405946477</v>
       </c>
       <c r="F7">
-        <v>0.609111825330757</v>
+        <v>0.8305170986308212</v>
       </c>
       <c r="G7">
-        <v>0.4736556558899565</v>
+        <v>0.818669324898849</v>
       </c>
       <c r="H7">
-        <v>0.5496922511095335</v>
+        <v>0.4187500096968506</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6890207626307188</v>
+        <v>1.943248311430381</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.726110558944356</v>
+        <v>3.219321032064272</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.003396369526026177</v>
+        <v>0.003576149274508111</v>
       </c>
       <c r="E8">
-        <v>1.212073725216953</v>
+        <v>2.939196376753785</v>
       </c>
       <c r="F8">
-        <v>0.6318355462696132</v>
+        <v>1.021953258529464</v>
       </c>
       <c r="G8">
-        <v>0.499653903795263</v>
+        <v>1.023341917755204</v>
       </c>
       <c r="H8">
-        <v>0.5496419315555556</v>
+        <v>0.4975309595558741</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.819914361445143</v>
+        <v>2.365339671792896</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.045473510088129</v>
+        <v>4.332541072396054</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.003059048911914886</v>
+        <v>0.006928891694441219</v>
       </c>
       <c r="E9">
-        <v>1.502238295003508</v>
+        <v>3.881905381605179</v>
       </c>
       <c r="F9">
-        <v>0.6849573692318245</v>
+        <v>1.448595597428223</v>
       </c>
       <c r="G9">
-        <v>0.5589164174766097</v>
+        <v>1.482148143160515</v>
       </c>
       <c r="H9">
-        <v>0.5559467457455582</v>
+        <v>0.6815958446003947</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.07537901880255</v>
+        <v>3.213998637948976</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.281135022391311</v>
+        <v>5.180527427371658</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.002913735497218184</v>
+        <v>0.01058108339544539</v>
       </c>
       <c r="E10">
-        <v>1.715249659232029</v>
+        <v>4.593543872062128</v>
       </c>
       <c r="F10">
-        <v>0.7294482764373384</v>
+        <v>1.806958646770397</v>
       </c>
       <c r="G10">
-        <v>0.6077953319822882</v>
+        <v>1.870000676744382</v>
       </c>
       <c r="H10">
-        <v>0.5646085460074914</v>
+        <v>0.8422301020505358</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.262369446990931</v>
+        <v>3.858653459602635</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.388584198396586</v>
+        <v>5.575750879533757</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.002871133208127929</v>
+        <v>0.01260966342988823</v>
       </c>
       <c r="E11">
-        <v>1.812107136054436</v>
+        <v>4.923446295723778</v>
       </c>
       <c r="F11">
-        <v>0.7509274965451738</v>
+        <v>1.983462577546021</v>
       </c>
       <c r="G11">
-        <v>0.6312541892335162</v>
+        <v>2.061764679614384</v>
       </c>
       <c r="H11">
-        <v>0.5694514539569866</v>
+        <v>0.9228345422220059</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.347296310821321</v>
+        <v>4.158769654383548</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.429308768186559</v>
+        <v>5.727061724680254</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.002858485361358021</v>
+        <v>0.01344202741138112</v>
       </c>
       <c r="E12">
-        <v>1.848777318871896</v>
+        <v>5.049462871362721</v>
       </c>
       <c r="F12">
-        <v>0.7592437081703736</v>
+        <v>2.052617582175202</v>
       </c>
       <c r="G12">
-        <v>0.6403185096981758</v>
+        <v>2.137022552928585</v>
       </c>
       <c r="H12">
-        <v>0.5714173611673914</v>
+        <v>0.9546454228418781</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.379437015373298</v>
+        <v>4.273627074800174</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.420536396474688</v>
+        <v>5.694395863331579</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.002861052617010529</v>
+        <v>0.01325970203624216</v>
       </c>
       <c r="E13">
-        <v>1.840880101981497</v>
+        <v>5.022270894319433</v>
       </c>
       <c r="F13">
-        <v>0.7574444797370319</v>
+        <v>2.037614014991561</v>
       </c>
       <c r="G13">
-        <v>0.6383582176520406</v>
+        <v>2.120689145495732</v>
       </c>
       <c r="H13">
-        <v>0.5709880616189196</v>
+        <v>0.9477334431993825</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.372515790244677</v>
+        <v>4.248832700032835</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.391933910107184</v>
+        <v>5.588164475343092</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.002870022212309919</v>
+        <v>0.0126767826978238</v>
       </c>
       <c r="E14">
-        <v>1.815124175595827</v>
+        <v>4.933790636302007</v>
       </c>
       <c r="F14">
-        <v>0.7516079947284879</v>
+        <v>1.989103159584218</v>
       </c>
       <c r="G14">
-        <v>0.6319962607827563</v>
+        <v>2.067900473328649</v>
       </c>
       <c r="H14">
-        <v>0.5696105320679692</v>
+        <v>0.9254245279419422</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.349940929797754</v>
+        <v>4.168193381082631</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.374418755409238</v>
+        <v>5.523318618008204</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.002875973323257952</v>
+        <v>0.01232846353425288</v>
       </c>
       <c r="E15">
-        <v>1.799346888241871</v>
+        <v>4.879742411630076</v>
       </c>
       <c r="F15">
-        <v>0.7480568701491279</v>
+        <v>1.959702954701129</v>
       </c>
       <c r="G15">
-        <v>0.6281230942325351</v>
+        <v>2.035924141598059</v>
       </c>
       <c r="H15">
-        <v>0.5687840120207852</v>
+        <v>0.9119340851410414</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.336110678750401</v>
+        <v>4.11896430561319</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.274117955499548</v>
+        <v>5.154912695531038</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.002917001511198336</v>
+        <v>0.01045682223312205</v>
       </c>
       <c r="E16">
-        <v>1.708918806992159</v>
+        <v>4.57212470609673</v>
       </c>
       <c r="F16">
-        <v>0.7280698686031712</v>
+        <v>1.795725818830192</v>
       </c>
       <c r="G16">
-        <v>0.6062872896081046</v>
+        <v>1.857812484101743</v>
       </c>
       <c r="H16">
-        <v>0.5643104017932217</v>
+        <v>0.8371306414512105</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.256816563696077</v>
+        <v>3.839196480166379</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.212649947278408</v>
+        <v>4.931523372223694</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.002948264429790015</v>
+        <v>0.009410094083198928</v>
       </c>
       <c r="E17">
-        <v>1.653432103453326</v>
+        <v>4.385125885347634</v>
       </c>
       <c r="F17">
-        <v>0.7161290650273173</v>
+        <v>1.698833102186683</v>
       </c>
       <c r="G17">
-        <v>0.5932086740178875</v>
+        <v>1.752759865422775</v>
       </c>
       <c r="H17">
-        <v>0.5617987326854177</v>
+        <v>0.7933046724168946</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.20813754402883</v>
+        <v>3.669472813735183</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.177318248141489</v>
+        <v>4.803907571475406</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.002968451677828554</v>
+        <v>0.008841805293293703</v>
       </c>
       <c r="E18">
-        <v>1.621513706948264</v>
+        <v>4.278136382818758</v>
       </c>
       <c r="F18">
-        <v>0.7093775015155899</v>
+        <v>1.644345889402359</v>
       </c>
       <c r="G18">
-        <v>0.5858010688918682</v>
+        <v>1.693748869373735</v>
       </c>
       <c r="H18">
-        <v>0.5604389119495465</v>
+        <v>0.7687918180702979</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.180125833093427</v>
+        <v>3.572482562635003</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.16535948847104</v>
+        <v>4.760840770471475</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.002975662384717026</v>
+        <v>0.00865487961490885</v>
       </c>
       <c r="E19">
-        <v>1.610706063105965</v>
+        <v>4.242003394706359</v>
       </c>
       <c r="F19">
-        <v>0.7071114154572911</v>
+        <v>1.626100464928157</v>
       </c>
       <c r="G19">
-        <v>0.5833125578908493</v>
+        <v>1.673999273046633</v>
       </c>
       <c r="H19">
-        <v>0.5599930017761778</v>
+        <v>0.7606058366088178</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.170639338278306</v>
+        <v>3.539745353152</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.219190929732008</v>
+        <v>4.955211381377637</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.002944707407992908</v>
+        <v>0.009517950489955851</v>
       </c>
       <c r="E20">
-        <v>1.659339174154184</v>
+        <v>4.404972163583778</v>
       </c>
       <c r="F20">
-        <v>0.7173880995323856</v>
+        <v>1.709016332360093</v>
       </c>
       <c r="G20">
-        <v>0.5945889903514967</v>
+        <v>1.76379378844851</v>
       </c>
       <c r="H20">
-        <v>0.5620573091601955</v>
+        <v>0.7978967560441959</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.213320834314629</v>
+        <v>3.687473448260619</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.400334174265254</v>
+        <v>5.619319964041836</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.00286729220118076</v>
+        <v>0.01284615604794048</v>
       </c>
       <c r="E21">
-        <v>1.822689534565967</v>
+        <v>4.95974807777722</v>
       </c>
       <c r="F21">
-        <v>0.7533173254880978</v>
+        <v>2.003285742952414</v>
       </c>
       <c r="G21">
-        <v>0.6338599703992429</v>
+        <v>2.083330231053964</v>
       </c>
       <c r="H21">
-        <v>0.570011545663192</v>
+        <v>0.9319404302186456</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.356572233287409</v>
+        <v>4.19184429939196</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.518931340754193</v>
+        <v>6.063128630035806</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.00283705893572872</v>
+        <v>0.01540251530156844</v>
       </c>
       <c r="E22">
-        <v>1.929403266300113</v>
+        <v>5.328797926077357</v>
       </c>
       <c r="F22">
-        <v>0.7778648475484431</v>
+        <v>2.209339985480412</v>
       </c>
       <c r="G22">
-        <v>0.6605829552904368</v>
+        <v>2.307823663029239</v>
       </c>
       <c r="H22">
-        <v>0.5759805531567395</v>
+        <v>1.027175419262221</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.450083267988987</v>
+        <v>4.528664419147674</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.455614405876076</v>
+        <v>5.82525808154378</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.002851296507301981</v>
+        <v>0.01399886511821435</v>
       </c>
       <c r="E23">
-        <v>1.872452750045284</v>
+        <v>5.131160782215602</v>
       </c>
       <c r="F23">
-        <v>0.7646644731389927</v>
+        <v>2.097964842265213</v>
       </c>
       <c r="G23">
-        <v>0.6462220022613394</v>
+        <v>2.186408446171214</v>
       </c>
       <c r="H23">
-        <v>0.5727235499865344</v>
+        <v>0.9755707010095307</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.400184797893473</v>
+        <v>4.348155784421692</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.216233729562248</v>
+        <v>4.944499518988323</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.002946308650933815</v>
+        <v>0.009469085124855781</v>
       </c>
       <c r="E24">
-        <v>1.656668644532886</v>
+        <v>4.395998060561766</v>
       </c>
       <c r="F24">
-        <v>0.7168185372460272</v>
+        <v>1.704408728744752</v>
       </c>
       <c r="G24">
-        <v>0.5939646025265688</v>
+        <v>1.758801069302365</v>
       </c>
       <c r="H24">
-        <v>0.5619401447281973</v>
+        <v>0.7958185617345634</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.210977548206415</v>
+        <v>3.67933355204508</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.958902541013515</v>
+        <v>4.026979830907521</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.003132713055075342</v>
+        <v>0.005845040654854472</v>
       </c>
       <c r="E25">
-        <v>1.423767370630344</v>
+        <v>3.62414167606255</v>
       </c>
       <c r="F25">
-        <v>0.6696449648022309</v>
+        <v>1.326401637218808</v>
       </c>
       <c r="G25">
-        <v>0.5419679397720358</v>
+        <v>1.350393713032759</v>
       </c>
       <c r="H25">
-        <v>0.5535426311665788</v>
+        <v>0.6279399644439536</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.006395285445933</v>
+        <v>2.981377951172988</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.370562266105651</v>
+        <v>0.8012425509901675</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.003934467838684341</v>
+        <v>0.03679401558227013</v>
       </c>
       <c r="E2">
-        <v>3.067871909799237</v>
+        <v>0.106911160612746</v>
       </c>
       <c r="F2">
-        <v>1.076849739959513</v>
+        <v>0.7887045552643173</v>
       </c>
       <c r="G2">
-        <v>1.082178613918558</v>
+        <v>0.7050322516239618</v>
       </c>
       <c r="H2">
-        <v>0.5206410120243561</v>
+        <v>0.003319578130342005</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01202212491932064</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4762743300367873</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5230135877468847</v>
       </c>
       <c r="L2">
-        <v>2.480850855940304</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.751651585294013</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3765695944079113</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.9353437802524365</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.934038092959895</v>
+        <v>0.7042014500397045</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.002985651696244318</v>
+        <v>0.03439714363844359</v>
       </c>
       <c r="E3">
-        <v>2.695939599310861</v>
+        <v>0.09957054220915662</v>
       </c>
       <c r="F3">
-        <v>0.9211866863324758</v>
+        <v>0.7252297804540078</v>
       </c>
       <c r="G3">
-        <v>0.9155079885190673</v>
+        <v>0.6484164079478916</v>
       </c>
       <c r="H3">
-        <v>0.4556784146888191</v>
+        <v>0.004895276764915746</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01438201941141326</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4551740425176547</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5174525311049116</v>
       </c>
       <c r="L3">
-        <v>2.147222477562366</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.524070879469235</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.328501578772503</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.9674108242651727</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.669108907543716</v>
+        <v>0.6440445907797425</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.002539504245278934</v>
+        <v>0.03292061904922505</v>
       </c>
       <c r="E4">
-        <v>2.469390868015935</v>
+        <v>0.09506854749377491</v>
       </c>
       <c r="F4">
-        <v>0.8310012927056363</v>
+        <v>0.6870930510959425</v>
       </c>
       <c r="G4">
-        <v>0.8191859703409818</v>
+        <v>0.6144162392875643</v>
       </c>
       <c r="H4">
-        <v>0.4189451298978071</v>
+        <v>0.006056907437054726</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01602889380145722</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4426996745214922</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5140615073866108</v>
       </c>
       <c r="L4">
-        <v>1.944359315861163</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.384964161304907</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2991281207693675</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.9876052885544873</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.561793863936032</v>
+        <v>0.6180696972154465</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.002387552691264005</v>
+        <v>0.03234469940153062</v>
       </c>
       <c r="E5">
-        <v>2.377440856318941</v>
+        <v>0.09319500910383383</v>
       </c>
       <c r="F5">
-        <v>0.7954410829330811</v>
+        <v>0.6712050266772209</v>
       </c>
       <c r="G5">
-        <v>0.7812568076616628</v>
+        <v>0.6001389723448938</v>
       </c>
       <c r="H5">
-        <v>0.4046804230357282</v>
+        <v>0.006581088058957241</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0168405194403376</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4374228874667949</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5120541144153883</v>
       </c>
       <c r="L5">
-        <v>1.862089888274795</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.329073243532378</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2874428964219504</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.9956215213043986</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.54400963186913</v>
+        <v>0.6121373076084353</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002364004354442173</v>
+        <v>0.03228233030564809</v>
       </c>
       <c r="E6">
-        <v>2.3621926439303</v>
+        <v>0.09283949923132973</v>
       </c>
       <c r="F6">
-        <v>0.7896037649148013</v>
+        <v>0.6679157386825949</v>
       </c>
       <c r="G6">
-        <v>0.7750334136392354</v>
+        <v>0.5970470102357694</v>
       </c>
       <c r="H6">
-        <v>0.4023518988821309</v>
+        <v>0.006675750232228772</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01709815118358815</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4361773877291029</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5109512150174886</v>
       </c>
       <c r="L6">
-        <v>1.848450468887421</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.320615975895379</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2858152245657095</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.996550900958022</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.667659171532534</v>
+        <v>0.6392809448046535</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00253733958226654</v>
+        <v>0.03300452865568104</v>
       </c>
       <c r="E7">
-        <v>2.468149405946477</v>
+        <v>0.09492307253267085</v>
       </c>
       <c r="F7">
-        <v>0.8305170986308212</v>
+        <v>0.6850683954789929</v>
       </c>
       <c r="G7">
-        <v>0.818669324898849</v>
+        <v>0.612224665495134</v>
       </c>
       <c r="H7">
-        <v>0.4187500096968506</v>
+        <v>0.00607609552612326</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0163501821969172</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4416020238621314</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5119331701433012</v>
       </c>
       <c r="L7">
-        <v>1.943248311430381</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.386444360102274</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2998214046675827</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.9866120364630664</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.219321032064272</v>
+        <v>0.762009481381142</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.003576149274508111</v>
+        <v>0.03609250277994036</v>
       </c>
       <c r="E8">
-        <v>2.939196376753785</v>
+        <v>0.104222162626175</v>
       </c>
       <c r="F8">
-        <v>1.021953258529464</v>
+        <v>0.7642391989776627</v>
       </c>
       <c r="G8">
-        <v>1.023341917755204</v>
+        <v>0.6826980110350149</v>
       </c>
       <c r="H8">
-        <v>0.4975309595558741</v>
+        <v>0.003833527875953369</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01316720806154592</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4675412864032467</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5183249170279041</v>
       </c>
       <c r="L8">
-        <v>2.365339671792896</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.676011721128219</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3610987306863933</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.944915823748584</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.332541072396054</v>
+        <v>1.006093855367737</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006928891694441219</v>
+        <v>0.04194967351335777</v>
       </c>
       <c r="E9">
-        <v>3.881905381605179</v>
+        <v>0.1228811740709015</v>
       </c>
       <c r="F9">
-        <v>1.448595597428223</v>
+        <v>0.9301471477332086</v>
       </c>
       <c r="G9">
-        <v>1.482148143160515</v>
+        <v>0.8312735601493131</v>
       </c>
       <c r="H9">
-        <v>0.6815958446003947</v>
+        <v>0.001055506176652177</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.008091898718104673</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5243936043180355</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5348142255468638</v>
       </c>
       <c r="L9">
-        <v>3.213998637948976</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.246186458399364</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4810526220424833</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.8691473619364878</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.180527427371658</v>
+        <v>1.163527868966042</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01058108339544539</v>
+        <v>0.04688618637849373</v>
       </c>
       <c r="E10">
-        <v>4.593543872062128</v>
+        <v>0.1362968900760728</v>
       </c>
       <c r="F10">
-        <v>1.806958646770397</v>
+        <v>1.046546106748167</v>
       </c>
       <c r="G10">
-        <v>1.870000676744382</v>
+        <v>0.9333836320166711</v>
       </c>
       <c r="H10">
-        <v>0.8422301020505358</v>
+        <v>0.0003685001762820939</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.005692458475423656</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5630063660035205</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5375814601542714</v>
       </c>
       <c r="L10">
-        <v>3.858653459602635</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.675732665693232</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5509390373472343</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.8121023760836295</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.575750879533757</v>
+        <v>1.083439601052703</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01260966342988823</v>
+        <v>0.05490395559630912</v>
       </c>
       <c r="E11">
-        <v>4.923446295723778</v>
+        <v>0.1483445402074217</v>
       </c>
       <c r="F11">
-        <v>1.983462577546021</v>
+        <v>1.009343489586385</v>
       </c>
       <c r="G11">
-        <v>2.061764679614384</v>
+        <v>0.8807980204295234</v>
       </c>
       <c r="H11">
-        <v>0.9228345422220059</v>
+        <v>0.01896810401230553</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00589783363624985</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5307502274132219</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4669490356675148</v>
       </c>
       <c r="L11">
-        <v>4.158769654383548</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.908502787659074</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4236816437197319</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.7625350508016357</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.727061724680254</v>
+        <v>0.9924247390585776</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01344202741138112</v>
+        <v>0.06108222542267328</v>
       </c>
       <c r="E12">
-        <v>5.049462871362721</v>
+        <v>0.1705254023006759</v>
       </c>
       <c r="F12">
-        <v>2.052617582175202</v>
+        <v>0.9559498712806658</v>
       </c>
       <c r="G12">
-        <v>2.137022552928585</v>
+        <v>0.8185999071603618</v>
       </c>
       <c r="H12">
-        <v>0.9546454228418781</v>
+        <v>0.05772099078665605</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.005974074574037758</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4970809309256907</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4159036992312366</v>
       </c>
       <c r="L12">
-        <v>4.273627074800174</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.011422913076103</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3155406177074838</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.7445386040455677</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.694395863331579</v>
+        <v>0.8814266577294916</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01325970203624216</v>
+        <v>0.06626905710572117</v>
       </c>
       <c r="E13">
-        <v>5.022270894319433</v>
+        <v>0.2009187176667311</v>
       </c>
       <c r="F13">
-        <v>2.037614014991561</v>
+        <v>0.8838918602149164</v>
       </c>
       <c r="G13">
-        <v>2.120689145495732</v>
+        <v>0.7420584094934242</v>
       </c>
       <c r="H13">
-        <v>0.9477334431993825</v>
+        <v>0.1136153535023965</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.006395443611055818</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4586274430448611</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.373623637278051</v>
       </c>
       <c r="L13">
-        <v>4.248832700032835</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.022532871309807</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2178062313814877</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7471521858916255</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.588164475343092</v>
+        <v>0.7946768281954633</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0126767826978238</v>
+        <v>0.06951613411839475</v>
       </c>
       <c r="E14">
-        <v>4.933790636302007</v>
+        <v>0.2276398397075781</v>
       </c>
       <c r="F14">
-        <v>1.989103159584218</v>
+        <v>0.8249853919861749</v>
       </c>
       <c r="G14">
-        <v>2.067900473328649</v>
+        <v>0.6820706896780138</v>
       </c>
       <c r="H14">
-        <v>0.9254245279419422</v>
+        <v>0.1631016112915376</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00695586281751126</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4295405300617148</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3485368583523538</v>
       </c>
       <c r="L14">
-        <v>4.168193381082631</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.989433745687165</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1569662775820788</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.7592815465547886</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.523318618008204</v>
+        <v>0.767720197037022</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01232846353425288</v>
+        <v>0.07005762252595815</v>
       </c>
       <c r="E15">
-        <v>4.879742411630076</v>
+        <v>0.2341334468444742</v>
       </c>
       <c r="F15">
-        <v>1.959702954701129</v>
+        <v>0.8061470824297459</v>
       </c>
       <c r="G15">
-        <v>2.035924141598059</v>
+        <v>0.6637484649469059</v>
       </c>
       <c r="H15">
-        <v>0.9119340851410414</v>
+        <v>0.1756766501975591</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.007316316900131348</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4211178614518332</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.343130444896051</v>
       </c>
       <c r="L15">
-        <v>4.11896430561319</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.962558568609751</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1426926381376816</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.7652856837013182</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.154912695531038</v>
+        <v>0.7235463410428054</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01045682223312205</v>
+        <v>0.06671757788831911</v>
       </c>
       <c r="E16">
-        <v>4.57212470609673</v>
+        <v>0.2209593725202907</v>
       </c>
       <c r="F16">
-        <v>1.795725818830192</v>
+        <v>0.7696877330882756</v>
       </c>
       <c r="G16">
-        <v>1.857812484101743</v>
+        <v>0.634458004817958</v>
       </c>
       <c r="H16">
-        <v>0.8371306414512105</v>
+        <v>0.1632912075477719</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.008456716015698085</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4116637167082615</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3497346721846597</v>
       </c>
       <c r="L16">
-        <v>3.839196480166379</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.774188289049619</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1359058518869318</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.7859829670460705</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.931523372223694</v>
+        <v>0.7346595126556679</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.009410094083198928</v>
+        <v>0.06243044397895403</v>
       </c>
       <c r="E17">
-        <v>4.385125885347634</v>
+        <v>0.1955876313923994</v>
       </c>
       <c r="F17">
-        <v>1.698833102186683</v>
+        <v>0.7730427114577196</v>
       </c>
       <c r="G17">
-        <v>1.752759865422775</v>
+        <v>0.6437565783588894</v>
       </c>
       <c r="H17">
-        <v>0.7933046724168946</v>
+        <v>0.1257161231439028</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.009062088133203083</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4198655046197644</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3674823733303469</v>
       </c>
       <c r="L17">
-        <v>3.669472813735183</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.648058658542283</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1611714339297237</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.795105036727012</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.803907571475406</v>
+        <v>0.7996902381757138</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.008841805293293703</v>
+        <v>0.05698619009103112</v>
       </c>
       <c r="E18">
-        <v>4.278136382818758</v>
+        <v>0.1632995921046998</v>
       </c>
       <c r="F18">
-        <v>1.644345889402359</v>
+        <v>0.8124080252069774</v>
       </c>
       <c r="G18">
-        <v>1.693748869373735</v>
+        <v>0.6892508425918891</v>
       </c>
       <c r="H18">
-        <v>0.7687918180702979</v>
+        <v>0.07288972416720441</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.008864126068223399</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4450917028080426</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4010131775237049</v>
       </c>
       <c r="L18">
-        <v>3.572482562635003</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.558848452549057</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.224397019219154</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.8001660537482032</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.760840770471475</v>
+        <v>0.8995077354829846</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.00865487961490885</v>
+        <v>0.05160104066895599</v>
       </c>
       <c r="E19">
-        <v>4.242003394706359</v>
+        <v>0.1386954244040783</v>
       </c>
       <c r="F19">
-        <v>1.626100464928157</v>
+        <v>0.8756131361006538</v>
       </c>
       <c r="G19">
-        <v>1.673999273046633</v>
+        <v>0.7587482806641646</v>
       </c>
       <c r="H19">
-        <v>0.7606058366088178</v>
+        <v>0.02738982231841902</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.008599173557838569</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4810944385808114</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4470472425313048</v>
       </c>
       <c r="L19">
-        <v>3.539745353152</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.510534313824365</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3270931465489753</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.8088299811026642</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.955211381377637</v>
+        <v>1.10768617238196</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.009517950489955851</v>
+        <v>0.04592235938982725</v>
       </c>
       <c r="E20">
-        <v>4.404972163583778</v>
+        <v>0.1324122509631385</v>
       </c>
       <c r="F20">
-        <v>1.709016332360093</v>
+        <v>1.009491881651073</v>
       </c>
       <c r="G20">
-        <v>1.76379378844851</v>
+        <v>0.8994886846741679</v>
       </c>
       <c r="H20">
-        <v>0.7978967560441959</v>
+        <v>0.0004657635245446379</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.007156889192149407</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.549245841162687</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5301437639567403</v>
       </c>
       <c r="L20">
-        <v>3.687473448260619</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.56972523160286</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5343848369068525</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.8239632134093782</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.619319964041836</v>
+        <v>1.256531023579072</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01284615604794048</v>
+        <v>0.04873853938809702</v>
       </c>
       <c r="E21">
-        <v>4.95974807777722</v>
+        <v>0.1439444277369</v>
       </c>
       <c r="F21">
-        <v>2.003285742952414</v>
+        <v>1.118044553005234</v>
       </c>
       <c r="G21">
-        <v>2.083330231053964</v>
+        <v>0.9986982088190928</v>
       </c>
       <c r="H21">
-        <v>0.9319404302186456</v>
+        <v>5.272392679778193E-06</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00535880293281199</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5894819939099563</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5468681737749606</v>
       </c>
       <c r="L21">
-        <v>4.19184429939196</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.894824252638216</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6185145709790874</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.7875676946088657</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.063128630035806</v>
+        <v>1.35065857941072</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01540251530156844</v>
+        <v>0.05075310981062842</v>
       </c>
       <c r="E22">
-        <v>5.328797926077357</v>
+        <v>0.1514720352832506</v>
       </c>
       <c r="F22">
-        <v>2.209339985480412</v>
+        <v>1.187540369396785</v>
       </c>
       <c r="G22">
-        <v>2.307823663029239</v>
+        <v>1.061712106181531</v>
       </c>
       <c r="H22">
-        <v>1.027175419262221</v>
+        <v>5.747215913776138E-05</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004106483773627545</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6149207369475818</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5561933766067</v>
       </c>
       <c r="L22">
-        <v>4.528664419147674</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.107933624933338</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6625816636719151</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.7635965843381847</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.82525808154378</v>
+        <v>1.3058145279727</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01399886511821435</v>
+        <v>0.0495596941936256</v>
       </c>
       <c r="E23">
-        <v>5.131160782215602</v>
+        <v>0.1475576349648953</v>
       </c>
       <c r="F23">
-        <v>2.097964842265213</v>
+        <v>1.152445183696813</v>
       </c>
       <c r="G23">
-        <v>2.186408446171214</v>
+        <v>1.030304126099949</v>
       </c>
       <c r="H23">
-        <v>0.9755707010095307</v>
+        <v>5.755710401844638E-06</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.004413176288946552</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6024675629493146</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5536194157049792</v>
       </c>
       <c r="L23">
-        <v>4.348155784421692</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.991316465077944</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6379983998644434</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.7773482352763939</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.944499518988323</v>
+        <v>1.12667774243036</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.009469085124855781</v>
+        <v>0.04523005649470235</v>
       </c>
       <c r="E24">
-        <v>4.395998060561766</v>
+        <v>0.1328825781046106</v>
       </c>
       <c r="F24">
-        <v>1.704408728744752</v>
+        <v>1.019129684364103</v>
       </c>
       <c r="G24">
-        <v>1.758801069302365</v>
+        <v>0.9104470362245394</v>
       </c>
       <c r="H24">
-        <v>0.7958185617345634</v>
+        <v>0.0003145893420370971</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.006562043901560344</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5549360197247921</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5402672022968318</v>
       </c>
       <c r="L24">
-        <v>3.67933355204508</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.55747288274074</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5471215785739645</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.8290758996807437</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.026979830907521</v>
+        <v>0.9324376668461696</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.005845040654854472</v>
+        <v>0.0405414038245091</v>
       </c>
       <c r="E25">
-        <v>3.62414167606255</v>
+        <v>0.1175853753700329</v>
       </c>
       <c r="F25">
-        <v>1.326401637218808</v>
+        <v>0.8810833403112071</v>
       </c>
       <c r="G25">
-        <v>1.350393713032759</v>
+        <v>0.786627875717727</v>
       </c>
       <c r="H25">
-        <v>0.6279399644439536</v>
+        <v>0.001628145225335831</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00979175951476563</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.506677216542343</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5265842023972347</v>
       </c>
       <c r="L25">
-        <v>2.981377951172988</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.09515437728524</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4499944262765183</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.887438859694484</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8012425509901675</v>
+        <v>0.6937191306903117</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03679401558227013</v>
+        <v>0.03862943433861687</v>
       </c>
       <c r="E2">
-        <v>0.106911160612746</v>
+        <v>0.09245034111536854</v>
       </c>
       <c r="F2">
-        <v>0.7887045552643173</v>
+        <v>0.7506483004077182</v>
       </c>
       <c r="G2">
-        <v>0.7050322516239618</v>
+        <v>0.6415365708878795</v>
       </c>
       <c r="H2">
-        <v>0.003319578130342005</v>
+        <v>0.002194441421508264</v>
       </c>
       <c r="I2">
-        <v>0.01202212491932064</v>
+        <v>0.008213360570070272</v>
       </c>
       <c r="J2">
-        <v>0.4762743300367873</v>
+        <v>0.4977643311424913</v>
       </c>
       <c r="K2">
-        <v>0.5230135877468847</v>
+        <v>0.4449571975839604</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1942388565161934</v>
       </c>
       <c r="M2">
-        <v>1.751651585294013</v>
+        <v>0.14186000153639</v>
       </c>
       <c r="N2">
-        <v>0.3765695944079113</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.786561743952205</v>
       </c>
       <c r="P2">
-        <v>0.9353437802524365</v>
+        <v>0.3989773313826674</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8805746053751964</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7042014500397045</v>
+        <v>0.613261329203965</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03439714363844359</v>
+        <v>0.03567757267681415</v>
       </c>
       <c r="E3">
-        <v>0.09957054220915662</v>
+        <v>0.08589364184399062</v>
       </c>
       <c r="F3">
-        <v>0.7252297804540078</v>
+        <v>0.6933073078328178</v>
       </c>
       <c r="G3">
-        <v>0.6484164079478916</v>
+        <v>0.5922844594444427</v>
       </c>
       <c r="H3">
-        <v>0.004895276764915746</v>
+        <v>0.003393651079549254</v>
       </c>
       <c r="I3">
-        <v>0.01438201941141326</v>
+        <v>0.009853831969760751</v>
       </c>
       <c r="J3">
-        <v>0.4551740425176547</v>
+        <v>0.4766045787694821</v>
       </c>
       <c r="K3">
-        <v>0.5174525311049116</v>
+        <v>0.4445181105071505</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1982375896563546</v>
       </c>
       <c r="M3">
-        <v>1.524070879469235</v>
+        <v>0.1392410382369675</v>
       </c>
       <c r="N3">
-        <v>0.328501578772503</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.551382197016522</v>
       </c>
       <c r="P3">
-        <v>0.9674108242651727</v>
+        <v>0.3476476348379123</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.9119956579095767</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6440445907797425</v>
+        <v>0.5630935565118875</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03292061904922505</v>
+        <v>0.03386710115813329</v>
       </c>
       <c r="E4">
-        <v>0.09506854749377491</v>
+        <v>0.08189427463477839</v>
       </c>
       <c r="F4">
-        <v>0.6870930510959425</v>
+        <v>0.6587848431668775</v>
       </c>
       <c r="G4">
-        <v>0.6144162392875643</v>
+        <v>0.5628544079994384</v>
       </c>
       <c r="H4">
-        <v>0.006056907437054726</v>
+        <v>0.004292854508918753</v>
       </c>
       <c r="I4">
-        <v>0.01602889380145722</v>
+        <v>0.01101845660457457</v>
       </c>
       <c r="J4">
-        <v>0.4426996745214922</v>
+        <v>0.4637761527320521</v>
       </c>
       <c r="K4">
-        <v>0.5140615073866108</v>
+        <v>0.4442043314037285</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2007036676095773</v>
       </c>
       <c r="M4">
-        <v>1.384964161304907</v>
+        <v>0.1380956041785506</v>
       </c>
       <c r="N4">
-        <v>0.2991281207693675</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.407645244690826</v>
       </c>
       <c r="P4">
-        <v>0.9876052885544873</v>
+        <v>0.3163168400356966</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.9318340049342808</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6180696972154465</v>
+        <v>0.5412857534882676</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03234469940153062</v>
+        <v>0.03315670517447344</v>
       </c>
       <c r="E5">
-        <v>0.09319500910383383</v>
+        <v>0.08025037947946301</v>
       </c>
       <c r="F5">
-        <v>0.6712050266772209</v>
+        <v>0.6443773225096407</v>
       </c>
       <c r="G5">
-        <v>0.6001389723448938</v>
+        <v>0.5505065255367612</v>
       </c>
       <c r="H5">
-        <v>0.006581088058957241</v>
+        <v>0.004701700011271293</v>
       </c>
       <c r="I5">
-        <v>0.0168405194403376</v>
+        <v>0.0116331881480658</v>
       </c>
       <c r="J5">
-        <v>0.4374228874667949</v>
+        <v>0.4582970040763996</v>
       </c>
       <c r="K5">
-        <v>0.5120541144153883</v>
+        <v>0.4435338525945518</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2014517950125345</v>
       </c>
       <c r="M5">
-        <v>1.329073243532378</v>
+        <v>0.137606198662894</v>
       </c>
       <c r="N5">
-        <v>0.2874428964219504</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.349849547778604</v>
       </c>
       <c r="P5">
-        <v>0.9956215213043986</v>
+        <v>0.303834782244536</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.9398065258179149</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6121373076084353</v>
+        <v>0.5362196129875656</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03228233030564809</v>
+        <v>0.03307202866658443</v>
       </c>
       <c r="E6">
-        <v>0.09283949923132973</v>
+        <v>0.07995707533019347</v>
       </c>
       <c r="F6">
-        <v>0.6679157386825949</v>
+        <v>0.6413856920122356</v>
       </c>
       <c r="G6">
-        <v>0.5970470102357694</v>
+        <v>0.5478044484506768</v>
       </c>
       <c r="H6">
-        <v>0.006675750232228772</v>
+        <v>0.004775740541375029</v>
       </c>
       <c r="I6">
-        <v>0.01709815118358815</v>
+        <v>0.01187065569724677</v>
       </c>
       <c r="J6">
-        <v>0.4361773877291029</v>
+        <v>0.4570356581681523</v>
       </c>
       <c r="K6">
-        <v>0.5109512150174886</v>
+        <v>0.4427741007671742</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2012604805706886</v>
       </c>
       <c r="M6">
-        <v>1.320615975895379</v>
+        <v>0.1373615851668006</v>
       </c>
       <c r="N6">
-        <v>0.2858152245657095</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.341040458584359</v>
       </c>
       <c r="P6">
-        <v>0.996550900958022</v>
+        <v>0.3020623048528819</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.9408411891198614</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6392809448046535</v>
+        <v>0.5590921186471576</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03300452865568104</v>
+        <v>0.03405508552252456</v>
       </c>
       <c r="E7">
-        <v>0.09492307253267085</v>
+        <v>0.08179487076755643</v>
       </c>
       <c r="F7">
-        <v>0.6850683954789929</v>
+        <v>0.655201102397811</v>
       </c>
       <c r="G7">
-        <v>0.612224665495134</v>
+        <v>0.5641950199966459</v>
       </c>
       <c r="H7">
-        <v>0.00607609552612326</v>
+        <v>0.004312118049310865</v>
       </c>
       <c r="I7">
-        <v>0.0163501821969172</v>
+        <v>0.01137671229042159</v>
       </c>
       <c r="J7">
-        <v>0.4416020238621314</v>
+        <v>0.4562754045618362</v>
       </c>
       <c r="K7">
-        <v>0.5119331701433012</v>
+        <v>0.4420173749348528</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1996784871796997</v>
       </c>
       <c r="M7">
-        <v>1.386444360102274</v>
+        <v>0.1374892971921753</v>
       </c>
       <c r="N7">
-        <v>0.2998214046675827</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.406342698238291</v>
       </c>
       <c r="P7">
-        <v>0.9866120364630664</v>
+        <v>0.316616758136675</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.9308786565988645</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.762009481381142</v>
+        <v>0.6616437382248819</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03609250277994036</v>
+        <v>0.03809726015341397</v>
       </c>
       <c r="E8">
-        <v>0.104222162626175</v>
+        <v>0.09003721097770434</v>
       </c>
       <c r="F8">
-        <v>0.7642391989776627</v>
+        <v>0.7227817239423473</v>
       </c>
       <c r="G8">
-        <v>0.6826980110350149</v>
+        <v>0.633107104252673</v>
       </c>
       <c r="H8">
-        <v>0.003833527875953369</v>
+        <v>0.002592641230890425</v>
       </c>
       <c r="I8">
-        <v>0.01316720806154592</v>
+        <v>0.009178680855813859</v>
       </c>
       <c r="J8">
-        <v>0.4675412864032467</v>
+        <v>0.4678979137611066</v>
       </c>
       <c r="K8">
-        <v>0.5183249170279041</v>
+        <v>0.4411781329790507</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.194021600539898</v>
       </c>
       <c r="M8">
-        <v>1.676011721128219</v>
+        <v>0.1397249433031345</v>
       </c>
       <c r="N8">
-        <v>0.3610987306863933</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.699227533246358</v>
       </c>
       <c r="P8">
-        <v>0.944915823748584</v>
+        <v>0.3811608170817777</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.8895701254109678</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.006093855367737</v>
+        <v>0.8628789707691169</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04194967351335777</v>
+        <v>0.04549348811638509</v>
       </c>
       <c r="E9">
-        <v>0.1228811740709015</v>
+        <v>0.1067345821570878</v>
       </c>
       <c r="F9">
-        <v>0.9301471477332086</v>
+        <v>0.8706487756679593</v>
       </c>
       <c r="G9">
-        <v>0.8312735601493131</v>
+        <v>0.7666102261634791</v>
       </c>
       <c r="H9">
-        <v>0.001055506176652177</v>
+        <v>0.0005649894100090425</v>
       </c>
       <c r="I9">
-        <v>0.008091898718104673</v>
+        <v>0.005618123962997323</v>
       </c>
       <c r="J9">
-        <v>0.5243936043180355</v>
+        <v>0.5168871288363732</v>
       </c>
       <c r="K9">
-        <v>0.5348142255468638</v>
+        <v>0.4437878334205188</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1850589235717202</v>
       </c>
       <c r="M9">
-        <v>2.246186458399364</v>
+        <v>0.1491782505020005</v>
       </c>
       <c r="N9">
-        <v>0.4810526220424833</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.285856467394836</v>
       </c>
       <c r="P9">
-        <v>0.8691473619364878</v>
+        <v>0.5091912788650887</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8152610962808797</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.163527868966042</v>
+        <v>0.9932441689711879</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04688618637849373</v>
+        <v>0.05227395051157657</v>
       </c>
       <c r="E10">
-        <v>0.1362968900760728</v>
+        <v>0.1194626240983485</v>
       </c>
       <c r="F10">
-        <v>1.046546106748167</v>
+        <v>0.9642492711127773</v>
       </c>
       <c r="G10">
-        <v>0.9333836320166711</v>
+        <v>0.8797739995367664</v>
       </c>
       <c r="H10">
-        <v>0.0003685001762820939</v>
+        <v>0.0002289218405731042</v>
       </c>
       <c r="I10">
-        <v>0.005692458475423656</v>
+        <v>0.004110926025216344</v>
       </c>
       <c r="J10">
-        <v>0.5630063660035205</v>
+        <v>0.5125885579680443</v>
       </c>
       <c r="K10">
-        <v>0.5375814601542714</v>
+        <v>0.4364288927130744</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1753284264006538</v>
       </c>
       <c r="M10">
-        <v>2.675732665693232</v>
+        <v>0.1547176796073799</v>
       </c>
       <c r="N10">
-        <v>0.5509390373472343</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.709706663638286</v>
       </c>
       <c r="P10">
-        <v>0.8121023760836295</v>
+        <v>0.5819544190464256</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7609149930550725</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.083439601052703</v>
+        <v>0.9364165757195906</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05490395559630912</v>
+        <v>0.06243445438837369</v>
       </c>
       <c r="E11">
-        <v>0.1483445402074217</v>
+        <v>0.1360342816656797</v>
       </c>
       <c r="F11">
-        <v>1.009343489586385</v>
+        <v>0.9129024810784898</v>
       </c>
       <c r="G11">
-        <v>0.8807980204295234</v>
+        <v>0.8795982463531402</v>
       </c>
       <c r="H11">
-        <v>0.01896810401230553</v>
+        <v>0.01882016627594751</v>
       </c>
       <c r="I11">
-        <v>0.00589783363624985</v>
+        <v>0.004573035185767793</v>
       </c>
       <c r="J11">
-        <v>0.5307502274132219</v>
+        <v>0.4157718683672869</v>
       </c>
       <c r="K11">
-        <v>0.4669490356675148</v>
+        <v>0.3790159717395021</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1527400214181611</v>
       </c>
       <c r="M11">
-        <v>2.908502787659074</v>
+        <v>0.1352287125526601</v>
       </c>
       <c r="N11">
-        <v>0.4236816437197319</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.898499977818318</v>
       </c>
       <c r="P11">
-        <v>0.7625350508016357</v>
+        <v>0.4438037178698551</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7306601050573587</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9924247390585776</v>
+        <v>0.8680340988876765</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06108222542267328</v>
+        <v>0.06963868214294422</v>
       </c>
       <c r="E12">
-        <v>0.1705254023006759</v>
+        <v>0.160029661217056</v>
       </c>
       <c r="F12">
-        <v>0.9559498712806658</v>
+        <v>0.8588204584702481</v>
       </c>
       <c r="G12">
-        <v>0.8185999071603618</v>
+        <v>0.8449223973142779</v>
       </c>
       <c r="H12">
-        <v>0.05772099078665605</v>
+        <v>0.05754091139596795</v>
       </c>
       <c r="I12">
-        <v>0.005974074574037758</v>
+        <v>0.00463574914618281</v>
       </c>
       <c r="J12">
-        <v>0.4970809309256907</v>
+        <v>0.3620685034601223</v>
       </c>
       <c r="K12">
-        <v>0.4159036992312366</v>
+        <v>0.3409780479068445</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1393817502747474</v>
       </c>
       <c r="M12">
-        <v>3.011422913076103</v>
+        <v>0.1204583623635713</v>
       </c>
       <c r="N12">
-        <v>0.3155406177074838</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.974732796977804</v>
       </c>
       <c r="P12">
-        <v>0.7445386040455677</v>
+        <v>0.328502000992259</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7272535565982139</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8814266577294916</v>
+        <v>0.7806628621627567</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06626905710572117</v>
+        <v>0.07446010499948841</v>
       </c>
       <c r="E13">
-        <v>0.2009187176667311</v>
+        <v>0.191650473082845</v>
       </c>
       <c r="F13">
-        <v>0.8838918602149164</v>
+        <v>0.8001405605876215</v>
       </c>
       <c r="G13">
-        <v>0.7420584094934242</v>
+        <v>0.7706300853346875</v>
       </c>
       <c r="H13">
-        <v>0.1136153535023965</v>
+        <v>0.1133704495746173</v>
       </c>
       <c r="I13">
-        <v>0.006395443611055818</v>
+        <v>0.004894477724545432</v>
       </c>
       <c r="J13">
-        <v>0.4586274430448611</v>
+        <v>0.3423801920202862</v>
       </c>
       <c r="K13">
-        <v>0.373623637278051</v>
+        <v>0.3126759433157176</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1304269515739307</v>
       </c>
       <c r="M13">
-        <v>3.022532871309807</v>
+        <v>0.1080073720631223</v>
       </c>
       <c r="N13">
-        <v>0.2178062313814877</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.979018614081326</v>
       </c>
       <c r="P13">
-        <v>0.7471521858916255</v>
+        <v>0.2261377991088835</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7397428285486889</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7946768281954633</v>
+        <v>0.7107006605365314</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06951613411839475</v>
+        <v>0.076745033378252</v>
       </c>
       <c r="E14">
-        <v>0.2276398397075781</v>
+        <v>0.2192153031730548</v>
       </c>
       <c r="F14">
-        <v>0.8249853919861749</v>
+        <v>0.7562228880015169</v>
       </c>
       <c r="G14">
-        <v>0.6820706896780138</v>
+        <v>0.7022148155982677</v>
       </c>
       <c r="H14">
-        <v>0.1631016112915376</v>
+        <v>0.1627924878490603</v>
       </c>
       <c r="I14">
-        <v>0.00695586281751126</v>
+        <v>0.005282280527404204</v>
       </c>
       <c r="J14">
-        <v>0.4295405300617148</v>
+        <v>0.3414003403292867</v>
       </c>
       <c r="K14">
-        <v>0.3485368583523538</v>
+        <v>0.2970954881830004</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1258131183383178</v>
       </c>
       <c r="M14">
-        <v>2.989433745687165</v>
+        <v>0.1005568511094026</v>
       </c>
       <c r="N14">
-        <v>0.1569662775820788</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.949908258382777</v>
       </c>
       <c r="P14">
-        <v>0.7592815465547886</v>
+        <v>0.162965476951328</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7553897301008092</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.767720197037022</v>
+        <v>0.6883205638571894</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07005762252595815</v>
+        <v>0.07676045579875534</v>
       </c>
       <c r="E15">
-        <v>0.2341334468444742</v>
+        <v>0.2261690160957528</v>
       </c>
       <c r="F15">
-        <v>0.8061470824297459</v>
+        <v>0.7435174163159814</v>
       </c>
       <c r="G15">
-        <v>0.6637484649469059</v>
+        <v>0.6778471440098315</v>
       </c>
       <c r="H15">
-        <v>0.1756766501975591</v>
+        <v>0.1753369058526744</v>
       </c>
       <c r="I15">
-        <v>0.007316316900131348</v>
+        <v>0.005583390665858445</v>
       </c>
       <c r="J15">
-        <v>0.4211178614518332</v>
+        <v>0.3464011227759443</v>
       </c>
       <c r="K15">
-        <v>0.343130444896051</v>
+        <v>0.2942142195568351</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1250569862470963</v>
       </c>
       <c r="M15">
-        <v>2.962558568609751</v>
+        <v>0.09894501139337208</v>
       </c>
       <c r="N15">
-        <v>0.1426926381376816</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.927747698136614</v>
       </c>
       <c r="P15">
-        <v>0.7652856837013182</v>
+        <v>0.1483337067498738</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7611880747868796</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7235463410428054</v>
+        <v>0.6484454948170821</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06671757788831911</v>
+        <v>0.07112782525936723</v>
       </c>
       <c r="E16">
-        <v>0.2209593725202907</v>
+        <v>0.2155186488611349</v>
       </c>
       <c r="F16">
-        <v>0.7696877330882756</v>
+        <v>0.7277528156228499</v>
       </c>
       <c r="G16">
-        <v>0.634458004817958</v>
+        <v>0.6157552584509745</v>
       </c>
       <c r="H16">
-        <v>0.1632912075477719</v>
+        <v>0.1627862477672011</v>
       </c>
       <c r="I16">
-        <v>0.008456716015698085</v>
+        <v>0.006374784733503169</v>
       </c>
       <c r="J16">
-        <v>0.4116637167082615</v>
+        <v>0.3940866721409719</v>
       </c>
       <c r="K16">
-        <v>0.3497346721846597</v>
+        <v>0.3031144820892528</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1288031189981753</v>
       </c>
       <c r="M16">
-        <v>2.774188289049619</v>
+        <v>0.1008926408316402</v>
       </c>
       <c r="N16">
-        <v>0.1359058518869318</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.770297803838986</v>
       </c>
       <c r="P16">
-        <v>0.7859829670460705</v>
+        <v>0.1430457788314214</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7743602051414022</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7346595126556679</v>
+        <v>0.6545337282491062</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06243044397895403</v>
+        <v>0.06597560713343142</v>
       </c>
       <c r="E17">
-        <v>0.1955876313923994</v>
+        <v>0.1908227747599938</v>
       </c>
       <c r="F17">
-        <v>0.7730427114577196</v>
+        <v>0.7370590555998149</v>
       </c>
       <c r="G17">
-        <v>0.6437565783588894</v>
+        <v>0.6084801884898923</v>
       </c>
       <c r="H17">
-        <v>0.1257161231439028</v>
+        <v>0.1251160975341037</v>
       </c>
       <c r="I17">
-        <v>0.009062088133203083</v>
+        <v>0.006808485139442766</v>
       </c>
       <c r="J17">
-        <v>0.4198655046197644</v>
+        <v>0.4261977157108987</v>
       </c>
       <c r="K17">
-        <v>0.3674823733303469</v>
+        <v>0.3180550039164984</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1345636923750497</v>
       </c>
       <c r="M17">
-        <v>2.648058658542283</v>
+        <v>0.1058838727198506</v>
       </c>
       <c r="N17">
-        <v>0.1611714339297237</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.660706552816407</v>
       </c>
       <c r="P17">
-        <v>0.795105036727012</v>
+        <v>0.1706536587795497</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.777881420108244</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7996902381757138</v>
+        <v>0.7046038257105067</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05698619009103112</v>
+        <v>0.06037254299100425</v>
       </c>
       <c r="E18">
-        <v>0.1632995921046998</v>
+        <v>0.1575640942550791</v>
       </c>
       <c r="F18">
-        <v>0.8124080252069774</v>
+        <v>0.7738567521775934</v>
       </c>
       <c r="G18">
-        <v>0.6892508425918891</v>
+        <v>0.6412698835829076</v>
       </c>
       <c r="H18">
-        <v>0.07288972416720441</v>
+        <v>0.0722797931405168</v>
       </c>
       <c r="I18">
-        <v>0.008864126068223399</v>
+        <v>0.006548154961020458</v>
       </c>
       <c r="J18">
-        <v>0.4450917028080426</v>
+        <v>0.4590808088139511</v>
       </c>
       <c r="K18">
-        <v>0.4010131775237049</v>
+        <v>0.3435709343460687</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1442107369933723</v>
       </c>
       <c r="M18">
-        <v>2.558848452549057</v>
+        <v>0.1151925394952933</v>
       </c>
       <c r="N18">
-        <v>0.224397019219154</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.584258503583811</v>
       </c>
       <c r="P18">
-        <v>0.8001660537482032</v>
+        <v>0.2381469375187635</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.77634113424552</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8995077354829846</v>
+        <v>0.7820582648008667</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05160104066895599</v>
+        <v>0.05516769824846079</v>
       </c>
       <c r="E19">
-        <v>0.1386954244040783</v>
+        <v>0.1300317890956375</v>
       </c>
       <c r="F19">
-        <v>0.8756131361006538</v>
+        <v>0.8292344820733746</v>
       </c>
       <c r="G19">
-        <v>0.7587482806641646</v>
+        <v>0.6991462184445112</v>
       </c>
       <c r="H19">
-        <v>0.02738982231841902</v>
+        <v>0.02686526744226114</v>
       </c>
       <c r="I19">
-        <v>0.008599173557838569</v>
+        <v>0.006429384155235418</v>
       </c>
       <c r="J19">
-        <v>0.4810944385808114</v>
+        <v>0.4934892767414993</v>
       </c>
       <c r="K19">
-        <v>0.4470472425313048</v>
+        <v>0.3772523961792906</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1567933879492518</v>
       </c>
       <c r="M19">
-        <v>2.510534313824365</v>
+        <v>0.1278675891172725</v>
       </c>
       <c r="N19">
-        <v>0.3270931465489753</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.547094254237578</v>
       </c>
       <c r="P19">
-        <v>0.8088299811026642</v>
+        <v>0.3471206192132712</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7761759518513198</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.10768617238196</v>
+        <v>0.9457786666988852</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04592235938982725</v>
+        <v>0.05040729187349768</v>
       </c>
       <c r="E20">
-        <v>0.1324122509631385</v>
+        <v>0.116178973637274</v>
       </c>
       <c r="F20">
-        <v>1.009491881651073</v>
+        <v>0.9401265228644462</v>
       </c>
       <c r="G20">
-        <v>0.8994886846741679</v>
+        <v>0.8312500458951462</v>
       </c>
       <c r="H20">
-        <v>0.0004657635245446379</v>
+        <v>0.0002407146887235534</v>
       </c>
       <c r="I20">
-        <v>0.007156889192149407</v>
+        <v>0.005488141014753367</v>
       </c>
       <c r="J20">
-        <v>0.549245841162687</v>
+        <v>0.5328233148782573</v>
       </c>
       <c r="K20">
-        <v>0.5301437639567403</v>
+        <v>0.4344461690750094</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1764059260053479</v>
       </c>
       <c r="M20">
-        <v>2.56972523160286</v>
+        <v>0.1516367836914938</v>
       </c>
       <c r="N20">
-        <v>0.5343848369068525</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.614870321621652</v>
       </c>
       <c r="P20">
-        <v>0.8239632134093782</v>
+        <v>0.5657722112333801</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.773910479015973</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.256531023579072</v>
+        <v>1.071313818103789</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04873853938809702</v>
+        <v>0.05696806332007753</v>
       </c>
       <c r="E21">
-        <v>0.1439444277369</v>
+        <v>0.1253315161596982</v>
       </c>
       <c r="F21">
-        <v>1.118044553005234</v>
+        <v>0.9952695758195205</v>
       </c>
       <c r="G21">
-        <v>0.9986982088190928</v>
+        <v>1.004019470545117</v>
       </c>
       <c r="H21">
-        <v>5.272392679778193E-06</v>
+        <v>1.182901790097723E-05</v>
       </c>
       <c r="I21">
-        <v>0.00535880293281199</v>
+        <v>0.004349069604633549</v>
       </c>
       <c r="J21">
-        <v>0.5894819939099563</v>
+        <v>0.4289603411721146</v>
       </c>
       <c r="K21">
-        <v>0.5468681737749606</v>
+        <v>0.4321181550397846</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1704905203369265</v>
       </c>
       <c r="M21">
-        <v>2.894824252638216</v>
+        <v>0.1576000671527389</v>
       </c>
       <c r="N21">
-        <v>0.6185145709790874</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.884486622529238</v>
       </c>
       <c r="P21">
-        <v>0.7875676946088657</v>
+        <v>0.6469669245131797</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7338953482262336</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.35065857941072</v>
+        <v>1.151599317503525</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05075310981062842</v>
+        <v>0.06173324137905922</v>
       </c>
       <c r="E22">
-        <v>0.1514720352832506</v>
+        <v>0.1317338126737306</v>
       </c>
       <c r="F22">
-        <v>1.187540369396785</v>
+        <v>1.027098622618553</v>
       </c>
       <c r="G22">
-        <v>1.061712106181531</v>
+        <v>1.124960097342267</v>
       </c>
       <c r="H22">
-        <v>5.747215913776138E-05</v>
+        <v>0.0001475322817632296</v>
       </c>
       <c r="I22">
-        <v>0.004106483773627545</v>
+        <v>0.003388651473049897</v>
       </c>
       <c r="J22">
-        <v>0.6149207369475818</v>
+        <v>0.3621396023996226</v>
       </c>
       <c r="K22">
-        <v>0.5561933766067</v>
+        <v>0.4289639215308227</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1661891441451147</v>
       </c>
       <c r="M22">
-        <v>3.107933624933338</v>
+        <v>0.1611400582671898</v>
       </c>
       <c r="N22">
-        <v>0.6625816636719151</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3.055619352333139</v>
       </c>
       <c r="P22">
-        <v>0.7635965843381847</v>
+        <v>0.687900606891418</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7083605123384964</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.3058145279727</v>
+        <v>1.112869516681201</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0495596941936256</v>
+        <v>0.0587157060618253</v>
       </c>
       <c r="E23">
-        <v>0.1475576349648953</v>
+        <v>0.1283800102641213</v>
       </c>
       <c r="F23">
-        <v>1.152445183696813</v>
+        <v>1.016523614996814</v>
       </c>
       <c r="G23">
-        <v>1.030304126099949</v>
+        <v>1.052329431341079</v>
       </c>
       <c r="H23">
-        <v>5.755710401844638E-06</v>
+        <v>5.835828536904231E-05</v>
       </c>
       <c r="I23">
-        <v>0.004413176288946552</v>
+        <v>0.003483487177883049</v>
       </c>
       <c r="J23">
-        <v>0.6024675629493146</v>
+        <v>0.4110525046014004</v>
       </c>
       <c r="K23">
-        <v>0.5536194157049792</v>
+        <v>0.4334889475177341</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1694138433515597</v>
       </c>
       <c r="M23">
-        <v>2.991316465077944</v>
+        <v>0.1604176197092784</v>
       </c>
       <c r="N23">
-        <v>0.6379983998644434</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.969048169949048</v>
       </c>
       <c r="P23">
-        <v>0.7773482352763939</v>
+        <v>0.6660240236010395</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7225717704009256</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.12667774243036</v>
+        <v>0.9610953610770423</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04523005649470235</v>
+        <v>0.04968277844927371</v>
       </c>
       <c r="E24">
-        <v>0.1328825781046106</v>
+        <v>0.1158735171283811</v>
       </c>
       <c r="F24">
-        <v>1.019129684364103</v>
+        <v>0.9488242240519043</v>
       </c>
       <c r="G24">
-        <v>0.9104470362245394</v>
+        <v>0.8400713098238839</v>
       </c>
       <c r="H24">
-        <v>0.0003145893420370971</v>
+        <v>0.0001037859666204177</v>
       </c>
       <c r="I24">
-        <v>0.006562043901560344</v>
+        <v>0.004814122756735095</v>
       </c>
       <c r="J24">
-        <v>0.5549360197247921</v>
+        <v>0.5389555500686498</v>
       </c>
       <c r="K24">
-        <v>0.5402672022968318</v>
+        <v>0.4421417577681588</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1792823303534021</v>
       </c>
       <c r="M24">
-        <v>2.55747288274074</v>
+        <v>0.1545263857423436</v>
       </c>
       <c r="N24">
-        <v>0.5471215785739645</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.604243254444611</v>
       </c>
       <c r="P24">
-        <v>0.8290758996807437</v>
+        <v>0.5794539836876424</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7767272646025916</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9324376668461696</v>
+        <v>0.8016987598150251</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0405414038245091</v>
+        <v>0.04350636289794352</v>
       </c>
       <c r="E25">
-        <v>0.1175853753700329</v>
+        <v>0.1021384267527856</v>
       </c>
       <c r="F25">
-        <v>0.8810833403112071</v>
+        <v>0.8294023510527779</v>
       </c>
       <c r="G25">
-        <v>0.786627875717727</v>
+        <v>0.7215117100455188</v>
       </c>
       <c r="H25">
-        <v>0.001628145225335831</v>
+        <v>0.0009596106148677119</v>
       </c>
       <c r="I25">
-        <v>0.00979175951476563</v>
+        <v>0.007012841079895082</v>
       </c>
       <c r="J25">
-        <v>0.506677216542343</v>
+        <v>0.5108500750246066</v>
       </c>
       <c r="K25">
-        <v>0.5265842023972347</v>
+        <v>0.4406654314748728</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1865037245677392</v>
       </c>
       <c r="M25">
-        <v>2.09515437728524</v>
+        <v>0.1453585585407211</v>
       </c>
       <c r="N25">
-        <v>0.4499944262765183</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.134098845192369</v>
       </c>
       <c r="P25">
-        <v>0.887438859694484</v>
+        <v>0.4763605084839213</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8341005264311758</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
